--- a/capiq_data/in_process_data/IQ135506.xlsx
+++ b/capiq_data/in_process_data/IQ135506.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CD83E0-DFEC-4DA3-BE06-1EF1D1E61851}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73145932-BBD0-4643-AF0D-83FAE5299690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"f7f85767-8061-4a25-963f-4f7895f51d2d"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"fc286515-cbae-41ab-b24d-afd551130d57"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>679</v>
+        <v>372</v>
       </c>
       <c r="D2">
-        <v>3773</v>
+        <v>1140</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3773</v>
+        <v>1140</v>
       </c>
       <c r="G2">
-        <v>98776</v>
+        <v>27108</v>
       </c>
       <c r="H2">
-        <v>247259</v>
+        <v>77114</v>
       </c>
       <c r="I2">
-        <v>145339</v>
+        <v>56376</v>
       </c>
       <c r="J2">
-        <v>16517</v>
+        <v>4536</v>
       </c>
       <c r="K2">
-        <v>18432</v>
+        <v>2795</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>190407</v>
+        <v>65101</v>
       </c>
       <c r="O2">
-        <v>214102</v>
+        <v>70962</v>
       </c>
       <c r="P2">
-        <v>34949</v>
+        <v>7331</v>
       </c>
       <c r="Q2">
-        <v>-18</v>
+        <v>-1097</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>48000</v>
+        <v>18861</v>
       </c>
       <c r="T2">
-        <v>33157</v>
+        <v>6152</v>
       </c>
       <c r="U2">
-        <v>8844</v>
+        <v>8915</v>
       </c>
       <c r="V2">
-        <v>1161</v>
+        <v>-158</v>
       </c>
       <c r="W2">
-        <v>-112</v>
+        <v>-132</v>
       </c>
       <c r="X2">
-        <v>-2502</v>
+        <v>1665</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>4994</v>
+        <v>-3197</v>
       </c>
       <c r="AA2">
-        <v>679</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>625</v>
+        <v>384</v>
       </c>
       <c r="D3">
-        <v>3646</v>
+        <v>1262</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3646</v>
+        <v>1262</v>
       </c>
       <c r="G3">
-        <v>123021</v>
+        <v>22791</v>
       </c>
       <c r="H3">
-        <v>266444</v>
+        <v>73073</v>
       </c>
       <c r="I3">
-        <v>162496</v>
+        <v>50914</v>
       </c>
       <c r="J3">
-        <v>17215</v>
+        <v>4508</v>
       </c>
       <c r="K3">
-        <v>22971</v>
+        <v>3041</v>
       </c>
       <c r="L3">
-        <v>-1861</v>
+        <v>-28</v>
       </c>
       <c r="M3">
-        <v>-404</v>
+        <v>-60</v>
       </c>
       <c r="N3">
-        <v>207491</v>
+        <v>60431</v>
       </c>
       <c r="O3">
-        <v>232304</v>
+        <v>67018</v>
       </c>
       <c r="P3">
-        <v>40186</v>
+        <v>7549</v>
       </c>
       <c r="Q3">
-        <v>383</v>
+        <v>-278</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>48400</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>34140</v>
+        <v>6055</v>
       </c>
       <c r="U3">
-        <v>8814</v>
+        <v>6316</v>
       </c>
       <c r="V3">
-        <v>426</v>
+        <v>1405</v>
       </c>
       <c r="W3">
-        <v>-112</v>
+        <v>-131</v>
       </c>
       <c r="X3">
-        <v>16430</v>
+        <v>-5174</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-6396</v>
+        <v>4296</v>
       </c>
       <c r="AA3">
-        <v>625</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>735</v>
+        <v>385</v>
       </c>
       <c r="D4">
-        <v>3850</v>
+        <v>1263</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3850</v>
+        <v>1263</v>
       </c>
       <c r="G4">
-        <v>156124</v>
+        <v>23543</v>
       </c>
       <c r="H4">
-        <v>304706</v>
+        <v>76831</v>
       </c>
       <c r="I4">
-        <v>197953</v>
+        <v>53708</v>
       </c>
       <c r="J4">
-        <v>17004</v>
+        <v>4555</v>
       </c>
       <c r="K4">
-        <v>27610</v>
+        <v>4245</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>244916</v>
+        <v>63910</v>
       </c>
       <c r="O4">
-        <v>269983</v>
+        <v>70545</v>
       </c>
       <c r="P4">
-        <v>44614</v>
+        <v>8800</v>
       </c>
       <c r="Q4">
-        <v>1502</v>
+        <v>1148</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>48900</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>34723</v>
+        <v>6286</v>
       </c>
       <c r="U4">
-        <v>10609</v>
+        <v>6634</v>
       </c>
       <c r="V4">
-        <v>571</v>
+        <v>1428</v>
       </c>
       <c r="W4">
-        <v>-162</v>
+        <v>-133</v>
       </c>
       <c r="X4">
-        <v>36470</v>
+        <v>4079</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-2634</v>
+        <v>-4543</v>
       </c>
       <c r="AA4">
-        <v>735</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="D5">
-        <v>3716</v>
+        <v>1177</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3716</v>
+        <v>1177</v>
       </c>
       <c r="G5">
-        <v>162969</v>
+        <v>19563</v>
       </c>
       <c r="H5">
-        <v>322187</v>
+        <v>89677</v>
       </c>
       <c r="I5">
-        <v>210890</v>
+        <v>60261</v>
       </c>
       <c r="J5">
-        <v>19399</v>
+        <v>4627</v>
       </c>
       <c r="K5">
-        <v>32004</v>
+        <v>7793</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>261065</v>
+        <v>74928</v>
       </c>
       <c r="O5">
-        <v>287658</v>
+        <v>83210</v>
       </c>
       <c r="P5">
-        <v>51403</v>
+        <v>12420</v>
       </c>
       <c r="Q5">
-        <v>1131</v>
+        <v>-706</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>49600</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>34529</v>
+        <v>6467</v>
       </c>
       <c r="U5">
-        <v>11333</v>
+        <v>3627</v>
       </c>
       <c r="V5">
-        <v>-1680</v>
+        <v>-50</v>
       </c>
       <c r="W5">
-        <v>-161</v>
+        <v>-133</v>
       </c>
       <c r="X5">
-        <v>20225</v>
+        <v>9451</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-2762</v>
+        <v>-1097</v>
       </c>
       <c r="AA5">
-        <v>651</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>505</v>
+        <v>331</v>
       </c>
       <c r="D6">
-        <v>3517</v>
+        <v>957</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3517</v>
+        <v>957</v>
       </c>
       <c r="G6">
-        <v>164019</v>
+        <v>23457</v>
       </c>
       <c r="H6">
-        <v>325266</v>
+        <v>81025</v>
       </c>
       <c r="I6">
-        <v>219094</v>
+        <v>55711</v>
       </c>
       <c r="J6">
-        <v>19933</v>
+        <v>4976</v>
       </c>
       <c r="K6">
-        <v>28557</v>
+        <v>4119</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>264894</v>
+        <v>66310</v>
       </c>
       <c r="O6">
-        <v>291065</v>
+        <v>74708</v>
       </c>
       <c r="P6">
-        <v>48490</v>
+        <v>9095</v>
       </c>
       <c r="Q6">
-        <v>-2516</v>
+        <v>-67</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>48700</v>
+        <v>19181</v>
       </c>
       <c r="T6">
-        <v>34201</v>
+        <v>6317</v>
       </c>
       <c r="U6">
-        <v>8685</v>
+        <v>8017</v>
       </c>
       <c r="V6">
-        <v>2894</v>
+        <v>3183</v>
       </c>
       <c r="W6">
-        <v>-158</v>
+        <v>-129</v>
       </c>
       <c r="X6">
-        <v>5640</v>
+        <v>-7934</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>9928</v>
+        <v>-4748</v>
       </c>
       <c r="AA6">
-        <v>505</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>619</v>
+        <v>362</v>
       </c>
       <c r="D7">
-        <v>3641</v>
+        <v>1194</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3641</v>
+        <v>1194</v>
       </c>
       <c r="G7">
-        <v>133069</v>
+        <v>19562</v>
       </c>
       <c r="H7">
-        <v>300169</v>
+        <v>76779</v>
       </c>
       <c r="I7">
-        <v>192462</v>
+        <v>53675</v>
       </c>
       <c r="J7">
-        <v>20336</v>
+        <v>5271</v>
       </c>
       <c r="K7">
-        <v>30010</v>
+        <v>3264</v>
       </c>
       <c r="L7">
-        <v>-126</v>
+        <v>-69</v>
       </c>
       <c r="M7">
-        <v>-773</v>
+        <v>-822</v>
       </c>
       <c r="N7">
-        <v>239772</v>
+        <v>61454</v>
       </c>
       <c r="O7">
-        <v>265340</v>
+        <v>70425</v>
       </c>
       <c r="P7">
-        <v>50346</v>
+        <v>8535</v>
       </c>
       <c r="Q7">
-        <v>158</v>
+        <v>566</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>47800</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>34829</v>
+        <v>6354</v>
       </c>
       <c r="U7">
-        <v>9770</v>
+        <v>5814</v>
       </c>
       <c r="V7">
-        <v>114</v>
+        <v>-569</v>
       </c>
       <c r="W7">
-        <v>-158</v>
+        <v>-137</v>
       </c>
       <c r="X7">
-        <v>-24352</v>
+        <v>-2627</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-3605</v>
+        <v>3905</v>
       </c>
       <c r="AA7">
-        <v>619</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>466</v>
+        <v>361</v>
       </c>
       <c r="D8">
-        <v>3636</v>
+        <v>1243</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3636</v>
+        <v>1243</v>
       </c>
       <c r="G8">
-        <v>156155</v>
+        <v>20623</v>
       </c>
       <c r="H8">
-        <v>330283</v>
+        <v>80805</v>
       </c>
       <c r="I8">
-        <v>221144</v>
+        <v>55291</v>
       </c>
       <c r="J8">
-        <v>19536</v>
+        <v>5668</v>
       </c>
       <c r="K8">
-        <v>31747</v>
+        <v>3739</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>269672</v>
+        <v>63585</v>
       </c>
       <c r="O8">
-        <v>294898</v>
+        <v>74195</v>
       </c>
       <c r="P8">
-        <v>51283</v>
+        <v>9407</v>
       </c>
       <c r="Q8">
-        <v>189</v>
+        <v>-903</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>48200</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>35385</v>
+        <v>6610</v>
       </c>
       <c r="U8">
-        <v>13065</v>
+        <v>5530</v>
       </c>
       <c r="V8">
-        <v>260</v>
+        <v>4617</v>
       </c>
       <c r="W8">
-        <v>-156</v>
+        <v>-138</v>
       </c>
       <c r="X8">
-        <v>30133</v>
+        <v>1102</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-10748</v>
+        <v>-6063</v>
       </c>
       <c r="AA8">
-        <v>466</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>725</v>
+        <v>79</v>
       </c>
       <c r="D9">
-        <v>3680</v>
+        <v>829</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3680</v>
+        <v>829</v>
       </c>
       <c r="G9">
-        <v>153891</v>
+        <v>20604</v>
       </c>
       <c r="H9">
-        <v>339944</v>
+        <v>80987</v>
       </c>
       <c r="I9">
-        <v>222949</v>
+        <v>56969</v>
       </c>
       <c r="J9">
-        <v>19516</v>
+        <v>5528</v>
       </c>
       <c r="K9">
-        <v>35287</v>
+        <v>2943</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>276663</v>
+        <v>64434</v>
       </c>
       <c r="O9">
-        <v>302805</v>
+        <v>74354</v>
       </c>
       <c r="P9">
-        <v>54803</v>
+        <v>8471</v>
       </c>
       <c r="Q9">
-        <v>469</v>
+        <v>868</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>48700</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>37139</v>
+        <v>6633</v>
       </c>
       <c r="U9">
-        <v>10744</v>
+        <v>6163</v>
       </c>
       <c r="V9">
-        <v>899</v>
+        <v>-2440</v>
       </c>
       <c r="W9">
-        <v>-160</v>
+        <v>-137</v>
       </c>
       <c r="X9">
-        <v>4125</v>
+        <v>-182</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-10059</v>
+        <v>1997</v>
       </c>
       <c r="AA9">
-        <v>725</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>635</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>3678</v>
+        <v>387</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3678</v>
+        <v>387</v>
       </c>
       <c r="G10">
-        <v>166272</v>
+        <v>19102</v>
       </c>
       <c r="H10">
-        <v>358990</v>
+        <v>77740</v>
       </c>
       <c r="I10">
-        <v>246095</v>
+        <v>55387</v>
       </c>
       <c r="J10">
-        <v>18530</v>
+        <v>5440</v>
       </c>
       <c r="K10">
-        <v>25240</v>
+        <v>1111</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>296979</v>
+        <v>63817</v>
       </c>
       <c r="O10">
-        <v>321548</v>
+        <v>71056</v>
       </c>
       <c r="P10">
-        <v>43770</v>
+        <v>6551</v>
       </c>
       <c r="Q10">
-        <v>-264</v>
+        <v>995</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>49500</v>
+        <v>19435</v>
       </c>
       <c r="T10">
-        <v>37442</v>
+        <v>6684</v>
       </c>
       <c r="U10">
-        <v>11320</v>
+        <v>6133</v>
       </c>
       <c r="V10">
-        <v>356</v>
+        <v>1765</v>
       </c>
       <c r="W10">
-        <v>-167</v>
+        <v>-137</v>
       </c>
       <c r="X10">
-        <v>18382</v>
+        <v>-3210</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>493</v>
+        <v>147</v>
       </c>
       <c r="AA10">
-        <v>635</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-253</v>
+        <v>295</v>
       </c>
       <c r="D11">
-        <v>3653</v>
+        <v>1190</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3653</v>
+        <v>1190</v>
       </c>
       <c r="G11">
-        <v>163316</v>
+        <v>19545</v>
       </c>
       <c r="H11">
-        <v>355942</v>
+        <v>79548</v>
       </c>
       <c r="I11">
-        <v>239672</v>
+        <v>56944</v>
       </c>
       <c r="J11">
-        <v>19854</v>
+        <v>5685</v>
       </c>
       <c r="K11">
-        <v>31017</v>
+        <v>1450</v>
       </c>
       <c r="L11">
+        <v>-184</v>
+      </c>
+      <c r="M11">
+        <v>-194</v>
+      </c>
+      <c r="N11">
+        <v>65140</v>
+      </c>
+      <c r="O11">
+        <v>72674</v>
+      </c>
+      <c r="P11">
+        <v>7135</v>
+      </c>
+      <c r="Q11">
+        <v>-295</v>
+      </c>
+      <c r="R11">
+        <v>37711</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>6874</v>
+      </c>
+      <c r="U11">
+        <v>7218</v>
+      </c>
+      <c r="V11">
         <v>-837</v>
       </c>
-      <c r="M11">
-        <v>-43</v>
-      </c>
-      <c r="N11">
-        <v>290688</v>
-      </c>
-      <c r="O11">
-        <v>319268</v>
-      </c>
-      <c r="P11">
-        <v>50871</v>
-      </c>
-      <c r="Q11">
-        <v>-287</v>
-      </c>
-      <c r="R11">
-        <v>41364</v>
-      </c>
-      <c r="S11">
-        <v>49700</v>
-      </c>
-      <c r="T11">
-        <v>36674</v>
-      </c>
-      <c r="U11">
-        <v>11444</v>
-      </c>
-      <c r="V11">
-        <v>-2744</v>
-      </c>
       <c r="W11">
-        <v>-166</v>
+        <v>-137</v>
       </c>
       <c r="X11">
-        <v>-4755</v>
+        <v>2228</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-1107</v>
+        <v>-1657</v>
       </c>
       <c r="AA11">
-        <v>-253</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>843</v>
+        <v>295</v>
       </c>
       <c r="D12">
-        <v>4044</v>
+        <v>1354</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4044</v>
+        <v>1354</v>
       </c>
       <c r="G12">
-        <v>168023</v>
+        <v>29830</v>
       </c>
       <c r="H12">
-        <v>360505</v>
+        <v>99604</v>
       </c>
       <c r="I12">
-        <v>244882</v>
+        <v>64655</v>
       </c>
       <c r="J12">
-        <v>18481</v>
+        <v>6515</v>
       </c>
       <c r="K12">
-        <v>35054</v>
+        <v>1951</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>299600</v>
+        <v>73596</v>
       </c>
       <c r="O12">
-        <v>323574</v>
+        <v>91491</v>
       </c>
       <c r="P12">
-        <v>53535</v>
+        <v>8466</v>
       </c>
       <c r="Q12">
-        <v>2500</v>
+        <v>-130</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>49800</v>
+        <v>23106</v>
       </c>
       <c r="T12">
-        <v>36931</v>
+        <v>8113</v>
       </c>
       <c r="U12">
-        <v>16918</v>
+        <v>16399</v>
       </c>
       <c r="V12">
-        <v>1785</v>
+        <v>1807</v>
       </c>
       <c r="W12">
-        <v>-189</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>8686</v>
+        <v>8357</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-3804</v>
+        <v>-8279</v>
       </c>
       <c r="AA12">
-        <v>843</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>975</v>
+        <v>260</v>
       </c>
       <c r="D13">
-        <v>3781</v>
+        <v>1430</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3781</v>
+        <v>1430</v>
       </c>
       <c r="G13">
-        <v>186542</v>
+        <v>23135</v>
       </c>
       <c r="H13">
-        <v>371952</v>
+        <v>95193</v>
       </c>
       <c r="I13">
-        <v>255560</v>
+        <v>58943</v>
       </c>
       <c r="J13">
-        <v>18889</v>
+        <v>6298</v>
       </c>
       <c r="K13">
-        <v>33932</v>
+        <v>1946</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>309597</v>
+        <v>68197</v>
       </c>
       <c r="O13">
-        <v>333969</v>
+        <v>86970</v>
       </c>
       <c r="P13">
-        <v>52821</v>
+        <v>8244</v>
       </c>
       <c r="Q13">
-        <v>364</v>
+        <v>-593</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>50800</v>
+        <v>22926</v>
       </c>
       <c r="T13">
-        <v>37983</v>
+        <v>8223</v>
       </c>
       <c r="U13">
-        <v>16495</v>
+        <v>10413</v>
       </c>
       <c r="V13">
-        <v>904</v>
+        <v>10</v>
       </c>
       <c r="W13">
-        <v>-188</v>
+        <v>-145</v>
       </c>
       <c r="X13">
-        <v>7313</v>
+        <v>-5171</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>8395</v>
+        <v>4187</v>
       </c>
       <c r="AA13">
-        <v>975</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>539</v>
+        <v>307</v>
       </c>
       <c r="D14">
-        <v>3605</v>
+        <v>1454</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3605</v>
+        <v>1454</v>
       </c>
       <c r="G14">
-        <v>178396</v>
+        <v>22748</v>
       </c>
       <c r="H14">
-        <v>374516</v>
+        <v>92397</v>
       </c>
       <c r="I14">
-        <v>261129</v>
+        <v>56406</v>
       </c>
       <c r="J14">
-        <v>19864</v>
+        <v>6121</v>
       </c>
       <c r="K14">
-        <v>26114</v>
+        <v>1873</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>311269</v>
+        <v>65308</v>
       </c>
       <c r="O14">
-        <v>336006</v>
+        <v>83969</v>
       </c>
       <c r="P14">
-        <v>45978</v>
+        <v>7994</v>
       </c>
       <c r="Q14">
-        <v>-844</v>
+        <v>113</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>51100</v>
+        <v>22901</v>
       </c>
       <c r="T14">
-        <v>38510</v>
+        <v>8428</v>
       </c>
       <c r="U14">
-        <v>15621</v>
+        <v>8672</v>
       </c>
       <c r="V14">
-        <v>-587</v>
+        <v>2832</v>
       </c>
       <c r="W14">
-        <v>-201</v>
+        <v>-145</v>
       </c>
       <c r="X14">
-        <v>4377</v>
+        <v>-3565</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>6225</v>
+        <v>-947</v>
       </c>
       <c r="AA14">
-        <v>539</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>674</v>
+        <v>364</v>
       </c>
       <c r="D15">
-        <v>3665</v>
+        <v>1476</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3665</v>
+        <v>1476</v>
       </c>
       <c r="G15">
-        <v>175530</v>
+        <v>21174</v>
       </c>
       <c r="H15">
-        <v>368241</v>
+        <v>92652</v>
       </c>
       <c r="I15">
-        <v>252227</v>
+        <v>56082</v>
       </c>
       <c r="J15">
-        <v>20616</v>
+        <v>6276</v>
       </c>
       <c r="K15">
-        <v>32554</v>
+        <v>1724</v>
       </c>
       <c r="L15">
-        <v>-69</v>
+        <v>-170</v>
       </c>
       <c r="M15">
-        <v>-704</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>303524</v>
+        <v>65058</v>
       </c>
       <c r="O15">
-        <v>329272</v>
+        <v>83892</v>
       </c>
       <c r="P15">
-        <v>53170</v>
+        <v>8000</v>
       </c>
       <c r="Q15">
-        <v>-368</v>
+        <v>-1228</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>51400</v>
+        <v>22820</v>
       </c>
       <c r="T15">
-        <v>38969</v>
+        <v>8760</v>
       </c>
       <c r="U15">
-        <v>18315</v>
+        <v>6390</v>
       </c>
       <c r="V15">
-        <v>-1055</v>
+        <v>1840</v>
       </c>
       <c r="W15">
-        <v>-186</v>
+        <v>-146</v>
       </c>
       <c r="X15">
-        <v>-6717</v>
+        <v>-865</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-8681</v>
+        <v>-1508</v>
       </c>
       <c r="AA15">
-        <v>674</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>577</v>
+        <v>371</v>
       </c>
       <c r="D16">
-        <v>3757</v>
+        <v>1567</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3757</v>
+        <v>1567</v>
       </c>
       <c r="G16">
-        <v>196744</v>
+        <v>25089</v>
       </c>
       <c r="H16">
-        <v>400740</v>
+        <v>97536</v>
       </c>
       <c r="I16">
-        <v>282439</v>
+        <v>61060</v>
       </c>
       <c r="J16">
-        <v>18227</v>
+        <v>6025</v>
       </c>
       <c r="K16">
-        <v>33953</v>
+        <v>2415</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>336359</v>
+        <v>70537</v>
       </c>
       <c r="O16">
-        <v>361266</v>
+        <v>88751</v>
       </c>
       <c r="P16">
-        <v>54280</v>
+        <v>8440</v>
       </c>
       <c r="Q16">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>51100</v>
+        <v>23001</v>
       </c>
       <c r="T16">
-        <v>39474</v>
+        <v>8785</v>
       </c>
       <c r="U16">
-        <v>21235</v>
+        <v>11193</v>
       </c>
       <c r="V16">
-        <v>3440</v>
+        <v>1592</v>
       </c>
       <c r="W16">
-        <v>-220</v>
+        <v>-155</v>
       </c>
       <c r="X16">
-        <v>30352</v>
+        <v>5291</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-2585</v>
+        <v>-4423</v>
       </c>
       <c r="AA16">
-        <v>577</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1083</v>
+        <v>354</v>
       </c>
       <c r="D17">
-        <v>4630</v>
+        <v>1527</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4630</v>
+        <v>1527</v>
       </c>
       <c r="G17">
-        <v>174228</v>
+        <v>21607</v>
       </c>
       <c r="H17">
-        <v>386296</v>
+        <v>93175</v>
       </c>
       <c r="I17">
-        <v>264896</v>
+        <v>58440</v>
       </c>
       <c r="J17">
-        <v>20133</v>
+        <v>6137</v>
       </c>
       <c r="K17">
-        <v>37185</v>
+        <v>2025</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>319621</v>
+        <v>67955</v>
       </c>
       <c r="O17">
-        <v>346698</v>
+        <v>84121</v>
       </c>
       <c r="P17">
-        <v>58768</v>
+        <v>8162</v>
       </c>
       <c r="Q17">
-        <v>237</v>
+        <v>-45</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>50900</v>
+        <v>23034</v>
       </c>
       <c r="T17">
-        <v>39598</v>
+        <v>9054</v>
       </c>
       <c r="U17">
-        <v>23785</v>
+        <v>8135</v>
       </c>
       <c r="V17">
-        <v>913</v>
+        <v>-17</v>
       </c>
       <c r="W17">
-        <v>-209</v>
+        <v>-154</v>
       </c>
       <c r="X17">
-        <v>-16224</v>
+        <v>-4913</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-992</v>
+        <v>3912</v>
       </c>
       <c r="AA17">
-        <v>1083</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>233</v>
+        <v>351</v>
       </c>
       <c r="D18">
-        <v>3688</v>
+        <v>1710</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3688</v>
+        <v>1710</v>
       </c>
       <c r="G18">
-        <v>170475</v>
+        <v>22836</v>
       </c>
       <c r="H18">
-        <v>385303</v>
+        <v>94529</v>
       </c>
       <c r="I18">
-        <v>265869</v>
+        <v>58721</v>
       </c>
       <c r="J18">
-        <v>20264</v>
+        <v>6121</v>
       </c>
       <c r="K18">
-        <v>40656</v>
+        <v>1738</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>321749</v>
+        <v>68036</v>
       </c>
       <c r="O18">
-        <v>346600</v>
+        <v>85239</v>
       </c>
       <c r="P18">
-        <v>60920</v>
+        <v>7859</v>
       </c>
       <c r="Q18">
-        <v>560</v>
+        <v>829</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>50300</v>
+        <v>23363</v>
       </c>
       <c r="T18">
-        <v>38703</v>
+        <v>9290</v>
       </c>
       <c r="U18">
-        <v>27272</v>
+        <v>9594</v>
       </c>
       <c r="V18">
-        <v>1186</v>
+        <v>-57</v>
       </c>
       <c r="W18">
-        <v>-218</v>
+        <v>-153</v>
       </c>
       <c r="X18">
-        <v>418</v>
+        <v>-318</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>6922</v>
+        <v>-138</v>
       </c>
       <c r="AA18">
-        <v>233</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>779</v>
+        <v>379</v>
       </c>
       <c r="D19">
-        <v>3790</v>
+        <v>1454</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3790</v>
+        <v>1454</v>
       </c>
       <c r="G19">
-        <v>169900</v>
+        <v>21058</v>
       </c>
       <c r="H19">
-        <v>399088</v>
+        <v>96537</v>
       </c>
       <c r="I19">
-        <v>281259</v>
+        <v>58963</v>
       </c>
       <c r="J19">
-        <v>20401</v>
+        <v>7389</v>
       </c>
       <c r="K19">
-        <v>38054</v>
+        <v>1785</v>
       </c>
       <c r="L19">
-        <v>-3550</v>
+        <v>-326</v>
       </c>
       <c r="M19">
-        <v>-2005</v>
+        <v>-99</v>
       </c>
       <c r="N19">
-        <v>332802</v>
+        <v>68096</v>
       </c>
       <c r="O19">
-        <v>360208</v>
+        <v>87202</v>
       </c>
       <c r="P19">
-        <v>58455</v>
+        <v>9174</v>
       </c>
       <c r="Q19">
-        <v>197</v>
+        <v>-1289</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>50500</v>
+        <v>23160</v>
       </c>
       <c r="T19">
-        <v>38880</v>
+        <v>9335</v>
       </c>
       <c r="U19">
-        <v>35435</v>
+        <v>6682</v>
       </c>
       <c r="V19">
-        <v>-71</v>
+        <v>-430</v>
       </c>
       <c r="W19">
-        <v>-205</v>
+        <v>-167</v>
       </c>
       <c r="X19">
-        <v>10236</v>
+        <v>1708</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-6905</v>
+        <v>548</v>
       </c>
       <c r="AA19">
-        <v>779</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3892</v>
+        <v>1526</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3892</v>
+        <v>1526</v>
       </c>
       <c r="G20">
-        <v>167801</v>
+        <v>24295</v>
       </c>
       <c r="H20">
-        <v>395254</v>
+        <v>103063</v>
       </c>
       <c r="I20">
-        <v>284430</v>
+        <v>63997</v>
       </c>
       <c r="J20">
-        <v>19375</v>
+        <v>7586</v>
       </c>
       <c r="K20">
-        <v>38110</v>
+        <v>2473</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>331245</v>
+        <v>74244</v>
       </c>
       <c r="O20">
-        <v>355830</v>
+        <v>93592</v>
       </c>
       <c r="P20">
-        <v>58485</v>
+        <v>10059</v>
       </c>
       <c r="Q20">
-        <v>1186</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>22993</v>
       </c>
       <c r="T20">
-        <v>39424</v>
+        <v>9471</v>
       </c>
       <c r="U20">
-        <v>32283</v>
+        <v>10151</v>
       </c>
       <c r="V20">
-        <v>2705</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>-214</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>6593</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2506</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>853</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>833</v>
+        <v>389</v>
       </c>
       <c r="D21">
-        <v>3789</v>
+        <v>1521</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3789</v>
+        <v>1521</v>
       </c>
       <c r="G21">
-        <v>151510</v>
+        <v>20947</v>
       </c>
       <c r="H21">
-        <v>377371</v>
+        <v>101766</v>
       </c>
       <c r="I21">
-        <v>266768</v>
+        <v>61077</v>
       </c>
       <c r="J21">
-        <v>17430</v>
+        <v>7529</v>
       </c>
       <c r="K21">
-        <v>36582</v>
+        <v>4619</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>315279</v>
+        <v>73556</v>
       </c>
       <c r="O21">
-        <v>338172</v>
+        <v>92158</v>
       </c>
       <c r="P21">
-        <v>58012</v>
+        <v>12148</v>
       </c>
       <c r="Q21">
-        <v>-119</v>
+        <v>594</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>51300</v>
+        <v>23081</v>
       </c>
       <c r="T21">
-        <v>39199</v>
+        <v>9608</v>
       </c>
       <c r="U21">
-        <v>37135</v>
+        <v>7065</v>
       </c>
       <c r="V21">
-        <v>1351</v>
+        <v>569</v>
       </c>
       <c r="W21">
-        <v>-204</v>
+        <v>-161</v>
       </c>
       <c r="X21">
-        <v>-19344</v>
+        <v>-1354</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1511</v>
+        <v>3115</v>
       </c>
       <c r="AA21">
-        <v>833</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>693</v>
+        <v>405</v>
       </c>
       <c r="D22">
-        <v>3563</v>
+        <v>1544</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3563</v>
+        <v>1544</v>
       </c>
       <c r="G22">
-        <v>174950</v>
+        <v>31728</v>
       </c>
       <c r="H22">
-        <v>393780</v>
+        <v>102118</v>
       </c>
       <c r="I22">
-        <v>279610</v>
+        <v>49787</v>
       </c>
       <c r="J22">
-        <v>21547</v>
+        <v>7817</v>
       </c>
       <c r="K22">
-        <v>41744</v>
+        <v>1738</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>328143</v>
+        <v>58424</v>
       </c>
       <c r="O22">
-        <v>354805</v>
+        <v>92242</v>
       </c>
       <c r="P22">
-        <v>63291</v>
+        <v>9555</v>
       </c>
       <c r="Q22">
-        <v>-1697</v>
+        <v>-53</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>51200</v>
+        <v>23451</v>
       </c>
       <c r="T22">
-        <v>38975</v>
+        <v>9876</v>
       </c>
       <c r="U22">
-        <v>30910</v>
+        <v>5307</v>
       </c>
       <c r="V22">
-        <v>142</v>
+        <v>-980</v>
       </c>
       <c r="W22">
-        <v>-242</v>
+        <v>-162</v>
       </c>
       <c r="X22">
-        <v>17700</v>
+        <v>1578</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>4956</v>
+        <v>-1702</v>
       </c>
       <c r="AA22">
-        <v>693</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>817</v>
+        <v>422</v>
       </c>
       <c r="D23">
-        <v>3720</v>
+        <v>1604</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3720</v>
+        <v>1604</v>
       </c>
       <c r="G23">
-        <v>155846</v>
+        <v>23603</v>
       </c>
       <c r="H23">
-        <v>372870</v>
+        <v>103611</v>
       </c>
       <c r="I23">
-        <v>257342</v>
+        <v>65224</v>
       </c>
       <c r="J23">
-        <v>21686</v>
+        <v>8309</v>
       </c>
       <c r="K23">
-        <v>43354</v>
+        <v>2061</v>
       </c>
       <c r="L23">
-        <v>-199</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>-1200</v>
+        <v>-12</v>
       </c>
       <c r="N23">
-        <v>306708</v>
+        <v>73766</v>
       </c>
       <c r="O23">
-        <v>333585</v>
+        <v>93510</v>
       </c>
       <c r="P23">
-        <v>65040</v>
+        <v>10370</v>
       </c>
       <c r="Q23">
-        <v>-2609</v>
+        <v>-651</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>52100</v>
+        <v>23500</v>
       </c>
       <c r="T23">
-        <v>39285</v>
+        <v>10101</v>
       </c>
       <c r="U23">
-        <v>30832</v>
+        <v>8189</v>
       </c>
       <c r="V23">
-        <v>1794</v>
+        <v>-11</v>
       </c>
       <c r="W23">
-        <v>-199</v>
+        <v>-164</v>
       </c>
       <c r="X23">
-        <v>-24487</v>
+        <v>396</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>2889</v>
+        <v>-1195</v>
       </c>
       <c r="AA23">
-        <v>817</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>873</v>
+        <v>448</v>
       </c>
       <c r="D24">
-        <v>3785</v>
+        <v>1729</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3785</v>
+        <v>1729</v>
       </c>
       <c r="G24">
-        <v>148109</v>
+        <v>32850</v>
       </c>
       <c r="H24">
-        <v>372351</v>
+        <v>108881</v>
       </c>
       <c r="I24">
-        <v>259678</v>
+        <v>56741</v>
       </c>
       <c r="J24">
-        <v>22573</v>
+        <v>8207</v>
       </c>
       <c r="K24">
-        <v>36654</v>
+        <v>2203</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>303531</v>
+        <v>66148</v>
       </c>
       <c r="O24">
-        <v>333054</v>
+        <v>98825</v>
       </c>
       <c r="P24">
-        <v>60227</v>
+        <v>10410</v>
       </c>
       <c r="Q24">
-        <v>1881</v>
+        <v>146</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>52200</v>
+        <v>23575</v>
       </c>
       <c r="T24">
-        <v>39297</v>
+        <v>10056</v>
       </c>
       <c r="U24">
-        <v>33869</v>
+        <v>5245</v>
       </c>
       <c r="V24">
-        <v>-332</v>
+        <v>1995</v>
       </c>
       <c r="W24">
-        <v>-232</v>
+        <v>-159</v>
       </c>
       <c r="X24">
-        <v>-3219</v>
+        <v>3423</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1897</v>
+        <v>-1649</v>
       </c>
       <c r="AA24">
-        <v>873</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>987</v>
+        <v>352</v>
       </c>
       <c r="D25">
-        <v>3960</v>
+        <v>1618</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3960</v>
+        <v>1618</v>
       </c>
       <c r="G25">
-        <v>144318</v>
+        <v>36775</v>
       </c>
       <c r="H25">
-        <v>374114</v>
+        <v>106636</v>
       </c>
       <c r="I25">
-        <v>261378</v>
+        <v>54953</v>
       </c>
       <c r="J25">
-        <v>24374</v>
+        <v>8434</v>
       </c>
       <c r="K25">
-        <v>34492</v>
+        <v>2161</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>302765</v>
+        <v>63875</v>
       </c>
       <c r="O25">
-        <v>333741</v>
+        <v>96169</v>
       </c>
       <c r="P25">
-        <v>58866</v>
+        <v>10595</v>
       </c>
       <c r="Q25">
-        <v>-852</v>
+        <v>-305</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>52300</v>
+        <v>23808</v>
       </c>
       <c r="T25">
-        <v>40373</v>
+        <v>10467</v>
       </c>
       <c r="U25">
-        <v>39808</v>
+        <v>7211</v>
       </c>
       <c r="V25">
-        <v>95</v>
+        <v>2834</v>
       </c>
       <c r="W25">
-        <v>-219</v>
+        <v>-168</v>
       </c>
       <c r="X25">
-        <v>3528</v>
+        <v>-2686</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-3327</v>
+        <v>-2530</v>
       </c>
       <c r="AA25">
-        <v>987</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>870</v>
+        <v>1625</v>
       </c>
       <c r="D26">
-        <v>3783</v>
+        <v>1907</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>3783</v>
+        <v>1907</v>
       </c>
       <c r="G26">
-        <v>113828</v>
+        <v>31314</v>
       </c>
       <c r="H26">
-        <v>333469</v>
+        <v>103206</v>
       </c>
       <c r="I26">
-        <v>221490</v>
+        <v>62146</v>
       </c>
       <c r="J26">
-        <v>24463</v>
+        <v>8773</v>
       </c>
       <c r="K26">
-        <v>36131</v>
+        <v>2415</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>264355</v>
+        <v>68725</v>
       </c>
       <c r="O26">
-        <v>293889</v>
+        <v>91777</v>
       </c>
       <c r="P26">
-        <v>60594</v>
+        <v>11188</v>
       </c>
       <c r="Q26">
-        <v>-135</v>
+        <v>768</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>52000</v>
+        <v>22961</v>
       </c>
       <c r="T26">
-        <v>39580</v>
+        <v>11429</v>
       </c>
       <c r="U26">
-        <v>30623</v>
+        <v>7954</v>
       </c>
       <c r="V26">
-        <v>4689</v>
+        <v>-907</v>
       </c>
       <c r="W26">
-        <v>-250</v>
+        <v>-165</v>
       </c>
       <c r="X26">
-        <v>-34872</v>
+        <v>1346</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>355</v>
+        <v>3935</v>
       </c>
       <c r="AA26">
-        <v>870</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>922</v>
+        <v>434</v>
       </c>
       <c r="D27">
-        <v>3848</v>
+        <v>1917</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3848</v>
+        <v>1917</v>
       </c>
       <c r="G27">
-        <v>119168</v>
+        <v>25232</v>
       </c>
       <c r="H27">
-        <v>337536</v>
+        <v>99848</v>
       </c>
       <c r="I27">
-        <v>221291</v>
+        <v>59016</v>
       </c>
       <c r="J27">
-        <v>26346</v>
+        <v>8885</v>
       </c>
       <c r="K27">
-        <v>38424</v>
+        <v>2487</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-160</v>
       </c>
       <c r="M27">
-        <v>-296</v>
+        <v>-28</v>
       </c>
       <c r="N27">
-        <v>265972</v>
+        <v>68626</v>
       </c>
       <c r="O27">
-        <v>297705</v>
+        <v>88321</v>
       </c>
       <c r="P27">
-        <v>64770</v>
+        <v>12072</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>-681</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>52600</v>
+        <v>23134</v>
       </c>
       <c r="T27">
-        <v>39831</v>
+        <v>11527</v>
       </c>
       <c r="U27">
-        <v>31142</v>
+        <v>3871</v>
       </c>
       <c r="V27">
-        <v>-1224</v>
+        <v>2047</v>
       </c>
       <c r="W27">
-        <v>-243</v>
+        <v>-168</v>
       </c>
       <c r="X27">
-        <v>4032</v>
+        <v>-3012</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-128</v>
+        <v>-2866</v>
       </c>
       <c r="AA27">
-        <v>922</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>975</v>
+        <v>445</v>
       </c>
       <c r="D28">
-        <v>3963</v>
+        <v>2075</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>3963</v>
+        <v>2075</v>
       </c>
       <c r="G28">
-        <v>134320</v>
+        <v>47391</v>
       </c>
       <c r="H28">
-        <v>354815</v>
+        <v>126333</v>
       </c>
       <c r="I28">
-        <v>235677</v>
+        <v>81353</v>
       </c>
       <c r="J28">
-        <v>27449</v>
+        <v>10796</v>
       </c>
       <c r="K28">
-        <v>38732</v>
+        <v>3352</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>281282</v>
+        <v>91547</v>
       </c>
       <c r="O28">
-        <v>314317</v>
+        <v>114504</v>
       </c>
       <c r="P28">
-        <v>66431</v>
+        <v>14148</v>
       </c>
       <c r="Q28">
-        <v>-385</v>
+        <v>1106</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>52800</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>40498</v>
+        <v>11829</v>
       </c>
       <c r="U28">
-        <v>32165</v>
+        <v>15263</v>
       </c>
       <c r="V28">
-        <v>-612</v>
+        <v>-1003</v>
       </c>
       <c r="W28">
-        <v>-248</v>
+        <v>-168</v>
       </c>
       <c r="X28">
-        <v>11041</v>
+        <v>25562</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-633</v>
+        <v>-12915</v>
       </c>
       <c r="AA28">
-        <v>975</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1018</v>
+        <v>640</v>
       </c>
       <c r="D29">
-        <v>4022</v>
+        <v>3572</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>4022</v>
+        <v>3572</v>
       </c>
       <c r="G29">
-        <v>135390</v>
+        <v>52512</v>
       </c>
       <c r="H29">
-        <v>354397</v>
+        <v>183972</v>
       </c>
       <c r="I29">
-        <v>230996</v>
+        <v>108205</v>
       </c>
       <c r="J29">
-        <v>28158</v>
+        <v>14312</v>
       </c>
       <c r="K29">
-        <v>40566</v>
+        <v>5041</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>278725</v>
+        <v>126066</v>
       </c>
       <c r="O29">
-        <v>313293</v>
+        <v>155015</v>
       </c>
       <c r="P29">
-        <v>68974</v>
+        <v>19353</v>
       </c>
       <c r="Q29">
-        <v>1579</v>
+        <v>2745</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>52900</v>
+        <v>40600</v>
       </c>
       <c r="T29">
-        <v>41104</v>
+        <v>28957</v>
       </c>
       <c r="U29">
-        <v>33440</v>
+        <v>10204</v>
       </c>
       <c r="V29">
-        <v>5212</v>
+        <v>3203</v>
       </c>
       <c r="W29">
-        <v>-288</v>
+        <v>-274</v>
       </c>
       <c r="X29">
-        <v>-3844</v>
+        <v>-4263</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-968</v>
+        <v>-1909</v>
       </c>
       <c r="AA29">
-        <v>1018</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1175</v>
+        <v>520</v>
       </c>
       <c r="D30">
-        <v>3734</v>
+        <v>3843</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>3734</v>
+        <v>3843</v>
       </c>
       <c r="G30">
-        <v>150999</v>
+        <v>64685</v>
       </c>
       <c r="H30">
-        <v>371758</v>
+        <v>197656</v>
       </c>
       <c r="I30">
-        <v>244322</v>
+        <v>118125</v>
       </c>
       <c r="J30">
-        <v>31007</v>
+        <v>16873</v>
       </c>
       <c r="K30">
-        <v>41998</v>
+        <v>8112</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>293753</v>
+        <v>134899</v>
       </c>
       <c r="O30">
-        <v>330012</v>
+        <v>168253</v>
       </c>
       <c r="P30">
-        <v>73005</v>
+        <v>24985</v>
       </c>
       <c r="Q30">
-        <v>-2332</v>
+        <v>625</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>52500</v>
+        <v>42100</v>
       </c>
       <c r="T30">
-        <v>41746</v>
+        <v>29403</v>
       </c>
       <c r="U30">
-        <v>33517</v>
+        <v>15663</v>
       </c>
       <c r="V30">
-        <v>1291</v>
+        <v>-277</v>
       </c>
       <c r="W30">
-        <v>-297</v>
+        <v>-274</v>
       </c>
       <c r="X30">
-        <v>15549</v>
+        <v>3181</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-787</v>
+        <v>749</v>
       </c>
       <c r="AA30">
-        <v>1175</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1171</v>
+        <v>746</v>
       </c>
       <c r="D31">
-        <v>4183</v>
+        <v>3755</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>4183</v>
+        <v>3755</v>
       </c>
       <c r="G31">
-        <v>154979</v>
+        <v>72497</v>
       </c>
       <c r="H31">
-        <v>373597</v>
+        <v>204935</v>
       </c>
       <c r="I31">
-        <v>241844</v>
+        <v>127210</v>
       </c>
       <c r="J31">
-        <v>27239</v>
+        <v>17373</v>
       </c>
       <c r="K31">
-        <v>48076</v>
+        <v>5993</v>
       </c>
       <c r="L31">
-        <v>-12</v>
+        <v>-4048</v>
       </c>
       <c r="M31">
-        <v>-2924</v>
+        <v>-1541</v>
       </c>
       <c r="N31">
-        <v>298895</v>
+        <v>145588</v>
       </c>
       <c r="O31">
-        <v>331473</v>
+        <v>176460</v>
       </c>
       <c r="P31">
-        <v>77565</v>
+        <v>23366</v>
       </c>
       <c r="Q31">
-        <v>-1261</v>
+        <v>1054</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>52100</v>
+        <v>42600</v>
       </c>
       <c r="T31">
-        <v>42124</v>
+        <v>28475</v>
       </c>
       <c r="U31">
-        <v>33420</v>
+        <v>19587</v>
       </c>
       <c r="V31">
-        <v>-852</v>
+        <v>905</v>
       </c>
       <c r="W31">
-        <v>-282</v>
+        <v>-276</v>
       </c>
       <c r="X31">
-        <v>971</v>
+        <v>5200</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-2433</v>
+        <v>-1118</v>
       </c>
       <c r="AA31">
-        <v>1171</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>1103</v>
+        <v>309</v>
       </c>
       <c r="D32">
-        <v>4141</v>
+        <v>3567</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>4141</v>
+        <v>3567</v>
       </c>
       <c r="G32">
-        <v>136696</v>
+        <v>71400</v>
       </c>
       <c r="H32">
-        <v>352928</v>
+        <v>201225</v>
       </c>
       <c r="I32">
-        <v>230560</v>
+        <v>127204</v>
       </c>
       <c r="J32">
-        <v>29863</v>
+        <v>15944</v>
       </c>
       <c r="K32">
-        <v>37392</v>
+        <v>3623</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>275948</v>
+        <v>141599</v>
       </c>
       <c r="O32">
-        <v>311182</v>
+        <v>172656</v>
       </c>
       <c r="P32">
-        <v>68705</v>
+        <v>19567</v>
       </c>
       <c r="Q32">
-        <v>1148</v>
+        <v>-1699</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>41746</v>
+        <v>28569</v>
       </c>
       <c r="U32">
-        <v>31855</v>
+        <v>22088</v>
       </c>
       <c r="V32">
-        <v>2420</v>
+        <v>946</v>
       </c>
       <c r="W32">
-        <v>-293</v>
+        <v>-277</v>
       </c>
       <c r="X32">
-        <v>-17806</v>
+        <v>2494</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-2499</v>
+        <v>-280</v>
       </c>
       <c r="AA32">
-        <v>1103</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1111</v>
+        <v>303</v>
       </c>
       <c r="D33">
-        <v>4072</v>
+        <v>3746</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>4072</v>
+        <v>3746</v>
       </c>
       <c r="G33">
-        <v>137252</v>
+        <v>122611</v>
       </c>
       <c r="H33">
-        <v>349770</v>
+        <v>267510</v>
       </c>
       <c r="I33">
-        <v>231590</v>
+        <v>174168</v>
       </c>
       <c r="J33">
-        <v>30797</v>
+        <v>15541</v>
       </c>
       <c r="K33">
-        <v>31762</v>
+        <v>20291</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>270627</v>
+        <v>205321</v>
       </c>
       <c r="O33">
-        <v>307909</v>
+        <v>239997</v>
       </c>
       <c r="P33">
-        <v>62809</v>
+        <v>35832</v>
       </c>
       <c r="Q33">
-        <v>-671</v>
+        <v>39349</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>52000</v>
+        <v>43200</v>
       </c>
       <c r="T33">
-        <v>41861</v>
+        <v>27513</v>
       </c>
       <c r="U33">
-        <v>33769</v>
+        <v>15189</v>
       </c>
       <c r="V33">
-        <v>1244</v>
+        <v>-318</v>
       </c>
       <c r="W33">
-        <v>-319</v>
+        <v>-277</v>
       </c>
       <c r="X33">
-        <v>-4721</v>
+        <v>67282</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>1362</v>
+        <v>-27027</v>
       </c>
       <c r="AA33">
-        <v>1111</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>881</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>4007</v>
+        <v>4102</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>4007</v>
+        <v>4102</v>
       </c>
       <c r="G34">
-        <v>148238</v>
+        <v>111006</v>
       </c>
       <c r="H34">
-        <v>362873</v>
+        <v>237512</v>
       </c>
       <c r="I34">
-        <v>238778</v>
+        <v>159673</v>
       </c>
       <c r="J34">
-        <v>29163</v>
+        <v>15865</v>
       </c>
       <c r="K34">
-        <v>38281</v>
+        <v>17130</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>287154</v>
+        <v>188940</v>
       </c>
       <c r="O34">
-        <v>322005</v>
+        <v>209423</v>
       </c>
       <c r="P34">
-        <v>70671</v>
+        <v>32995</v>
       </c>
       <c r="Q34">
-        <v>1909</v>
+        <v>-40450</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>51300</v>
+        <v>42900</v>
       </c>
       <c r="T34">
-        <v>40868</v>
+        <v>28089</v>
       </c>
       <c r="U34">
-        <v>52659</v>
+        <v>6889</v>
       </c>
       <c r="V34">
-        <v>3184</v>
+        <v>1381</v>
       </c>
       <c r="W34">
-        <v>-327</v>
+        <v>-299</v>
       </c>
       <c r="X34">
-        <v>13458</v>
+        <v>-23223</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-152</v>
+        <v>13984</v>
       </c>
       <c r="AA34">
-        <v>881</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>946</v>
+        <v>369</v>
       </c>
       <c r="D35">
-        <v>3892</v>
+        <v>3147</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>3892</v>
+        <v>3147</v>
       </c>
       <c r="G35">
-        <v>135127</v>
+        <v>93424</v>
       </c>
       <c r="H35">
-        <v>346132</v>
+        <v>203478</v>
       </c>
       <c r="I35">
-        <v>222382</v>
+        <v>133594</v>
       </c>
       <c r="J35">
-        <v>25074</v>
+        <v>16232</v>
       </c>
       <c r="K35">
-        <v>36251</v>
+        <v>2619</v>
       </c>
       <c r="L35">
-        <v>-2896</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-1500</v>
+        <v>-5496</v>
       </c>
       <c r="N35">
-        <v>271748</v>
+        <v>146332</v>
       </c>
       <c r="O35">
-        <v>304663</v>
+        <v>175241</v>
       </c>
       <c r="P35">
-        <v>69427</v>
+        <v>18851</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>-1209</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>49800</v>
+        <v>42000</v>
       </c>
       <c r="T35">
-        <v>41469</v>
+        <v>28237</v>
       </c>
       <c r="U35">
-        <v>46138</v>
+        <v>6197</v>
       </c>
       <c r="V35">
-        <v>-949</v>
+        <v>-425</v>
       </c>
       <c r="W35">
-        <v>-306</v>
+        <v>-315</v>
       </c>
       <c r="X35">
-        <v>-19837</v>
+        <v>-29231</v>
       </c>
       <c r="Y35">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>3848</v>
+        <v>3891</v>
       </c>
       <c r="AA35">
-        <v>946</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1017</v>
+        <v>412</v>
       </c>
       <c r="D36">
-        <v>3932</v>
+        <v>2593</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3932</v>
+        <v>2593</v>
       </c>
       <c r="G36">
-        <v>167311</v>
+        <v>84284</v>
       </c>
       <c r="H36">
-        <v>381168</v>
+        <v>203012</v>
       </c>
       <c r="I36">
-        <v>252877</v>
+        <v>130589</v>
       </c>
       <c r="J36">
-        <v>26703</v>
+        <v>17363</v>
       </c>
       <c r="K36">
-        <v>42219</v>
+        <v>3675</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>305190</v>
+        <v>143943</v>
       </c>
       <c r="O36">
-        <v>339333</v>
+        <v>175708</v>
       </c>
       <c r="P36">
-        <v>73701</v>
+        <v>21038</v>
       </c>
       <c r="Q36">
-        <v>-701</v>
+        <v>111</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>49100</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>41835</v>
+        <v>27304</v>
       </c>
       <c r="U36">
-        <v>66757</v>
+        <v>7471</v>
       </c>
       <c r="V36">
-        <v>-1565</v>
+        <v>738</v>
       </c>
       <c r="W36">
-        <v>-318</v>
+        <v>-137</v>
       </c>
       <c r="X36">
-        <v>33082</v>
+        <v>-2964</v>
       </c>
       <c r="Y36">
-        <v>1211</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-3510</v>
+        <v>-11894</v>
       </c>
       <c r="AA36">
-        <v>1017</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1038</v>
+        <v>-2458</v>
       </c>
       <c r="D37">
-        <v>3877</v>
+        <v>-1654</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>3877</v>
+        <v>-1654</v>
       </c>
       <c r="G37">
-        <v>155375</v>
+        <v>89774</v>
       </c>
       <c r="H37">
-        <v>373168</v>
+        <v>212007</v>
       </c>
       <c r="I37">
-        <v>249660</v>
+        <v>133936</v>
       </c>
       <c r="J37">
-        <v>27872</v>
+        <v>17486</v>
       </c>
       <c r="K37">
-        <v>36850</v>
+        <v>3996</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>294758</v>
+        <v>149611</v>
       </c>
       <c r="O37">
-        <v>331698</v>
+        <v>183691</v>
       </c>
       <c r="P37">
-        <v>67030</v>
+        <v>21482</v>
       </c>
       <c r="Q37">
-        <v>1400</v>
+        <v>-425</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>48700</v>
+        <v>42000</v>
       </c>
       <c r="T37">
-        <v>41470</v>
+        <v>28316</v>
       </c>
       <c r="U37">
-        <v>50441</v>
+        <v>7216</v>
       </c>
       <c r="V37">
-        <v>5081</v>
+        <v>2213</v>
       </c>
       <c r="W37">
-        <v>-330</v>
+        <v>-112</v>
       </c>
       <c r="X37">
-        <v>-9791</v>
+        <v>3386</v>
       </c>
       <c r="Y37">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-2569</v>
+        <v>-9013</v>
       </c>
       <c r="AA37">
-        <v>1038</v>
+        <v>-2458</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1440</v>
+        <v>593</v>
       </c>
       <c r="D38">
-        <v>4786</v>
+        <v>8605</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>4786</v>
+        <v>8605</v>
       </c>
       <c r="G38">
-        <v>163994</v>
+        <v>79813</v>
       </c>
       <c r="H38">
-        <v>381508</v>
+        <v>212224</v>
       </c>
       <c r="I38">
-        <v>259466</v>
+        <v>135050</v>
       </c>
       <c r="J38">
-        <v>27501</v>
+        <v>17234</v>
       </c>
       <c r="K38">
-        <v>37909</v>
+        <v>14558</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>305273</v>
+        <v>160488</v>
       </c>
       <c r="O38">
-        <v>339780</v>
+        <v>183221</v>
       </c>
       <c r="P38">
-        <v>67781</v>
+        <v>31792</v>
       </c>
       <c r="Q38">
-        <v>-1725</v>
+        <v>366</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>48400</v>
+        <v>42200</v>
       </c>
       <c r="T38">
-        <v>41728</v>
+        <v>29003</v>
       </c>
       <c r="U38">
-        <v>35012</v>
+        <v>7267</v>
       </c>
       <c r="V38">
-        <v>-2471</v>
+        <v>1255</v>
       </c>
       <c r="W38">
-        <v>-335</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>6005</v>
+        <v>836</v>
       </c>
       <c r="Y38">
-        <v>1772</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>732</v>
+        <v>-8146</v>
       </c>
       <c r="AA38">
-        <v>1440</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>980</v>
+        <v>559</v>
       </c>
       <c r="D39">
-        <v>3939</v>
+        <v>3324</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3939</v>
+        <v>3324</v>
       </c>
       <c r="G39">
-        <v>220769</v>
+        <v>87161</v>
       </c>
       <c r="H39">
-        <v>468155</v>
+        <v>220551</v>
       </c>
       <c r="I39">
-        <v>336717</v>
+        <v>131627</v>
       </c>
       <c r="J39">
-        <v>25294</v>
+        <v>16409</v>
       </c>
       <c r="K39">
-        <v>44555</v>
+        <v>10038</v>
       </c>
       <c r="L39">
-        <v>-2838</v>
+        <v>-6</v>
       </c>
       <c r="M39">
-        <v>-1750</v>
+        <v>-1256</v>
       </c>
       <c r="N39">
-        <v>391143</v>
+        <v>157851</v>
       </c>
       <c r="O39">
-        <v>426776</v>
+        <v>190096</v>
       </c>
       <c r="P39">
-        <v>73593</v>
+        <v>36775</v>
       </c>
       <c r="Q39">
-        <v>2538</v>
+        <v>-425</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>47900</v>
+        <v>42300</v>
       </c>
       <c r="T39">
-        <v>41379</v>
+        <v>30455</v>
       </c>
       <c r="U39">
-        <v>32454</v>
+        <v>7756</v>
       </c>
       <c r="V39">
-        <v>-1685</v>
+        <v>1191</v>
       </c>
       <c r="W39">
-        <v>-318</v>
+        <v>-109</v>
       </c>
       <c r="X39">
-        <v>82880</v>
+        <v>-2126</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>-20732</v>
+        <v>6055</v>
       </c>
       <c r="AA39">
-        <v>980</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>950</v>
+        <v>658</v>
       </c>
       <c r="D40">
-        <v>3867</v>
+        <v>3322</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3867</v>
+        <v>3322</v>
       </c>
       <c r="G40">
-        <v>191608</v>
+        <v>99706</v>
       </c>
       <c r="H40">
-        <v>442316</v>
+        <v>235693</v>
       </c>
       <c r="I40">
-        <v>305470</v>
+        <v>143667</v>
       </c>
       <c r="J40">
-        <v>25366</v>
+        <v>16790</v>
       </c>
       <c r="K40">
-        <v>44064</v>
+        <v>10744</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>361147</v>
+        <v>171567</v>
       </c>
       <c r="O40">
-        <v>398350</v>
+        <v>204588</v>
       </c>
       <c r="P40">
-        <v>73258</v>
+        <v>37734</v>
       </c>
       <c r="Q40">
-        <v>-2819</v>
+        <v>262</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>48300</v>
+        <v>42700</v>
       </c>
       <c r="T40">
-        <v>43966</v>
+        <v>31105</v>
       </c>
       <c r="U40">
-        <v>41414</v>
+        <v>8022</v>
       </c>
       <c r="V40">
-        <v>6810</v>
+        <v>-1333</v>
       </c>
       <c r="W40">
-        <v>-327</v>
+        <v>-110</v>
       </c>
       <c r="X40">
-        <v>-29490</v>
+        <v>16471</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>-11875</v>
+        <v>-4067</v>
       </c>
       <c r="AA40">
-        <v>950</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>937</v>
+        <v>622</v>
       </c>
       <c r="D41">
-        <v>3838</v>
+        <v>3445</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>3838</v>
+        <v>3445</v>
       </c>
       <c r="G41">
-        <v>177565</v>
+        <v>118071</v>
       </c>
       <c r="H41">
-        <v>428398</v>
+        <v>254157</v>
       </c>
       <c r="I41">
-        <v>296312</v>
+        <v>148981</v>
       </c>
       <c r="J41">
-        <v>25321</v>
+        <v>16720</v>
       </c>
       <c r="K41">
-        <v>43685</v>
+        <v>13503</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>350092</v>
+        <v>194696</v>
       </c>
       <c r="O41">
-        <v>383051</v>
+        <v>221266</v>
       </c>
       <c r="P41">
-        <v>70226</v>
+        <v>41118</v>
       </c>
       <c r="Q41">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>48600</v>
+        <v>47700</v>
       </c>
       <c r="T41">
-        <v>45347</v>
+        <v>32891</v>
       </c>
       <c r="U41">
-        <v>33751</v>
+        <v>8428</v>
       </c>
       <c r="V41">
-        <v>778</v>
+        <v>3031</v>
       </c>
       <c r="W41">
-        <v>-339</v>
+        <v>-109</v>
       </c>
       <c r="X41">
-        <v>-15255</v>
+        <v>-1053</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>-543</v>
+        <v>-6511</v>
       </c>
       <c r="AA41">
-        <v>937</v>
+        <v>622</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>679</v>
+      </c>
+      <c r="D42">
+        <v>3773</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>3773</v>
+      </c>
+      <c r="G42">
+        <v>98776</v>
+      </c>
+      <c r="H42">
+        <v>247259</v>
+      </c>
+      <c r="I42">
+        <v>145339</v>
+      </c>
+      <c r="J42">
+        <v>16517</v>
+      </c>
+      <c r="K42">
+        <v>18432</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>190407</v>
+      </c>
+      <c r="O42">
+        <v>214102</v>
+      </c>
+      <c r="P42">
+        <v>34949</v>
+      </c>
+      <c r="Q42">
+        <v>-18</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>48000</v>
+      </c>
+      <c r="T42">
+        <v>33157</v>
+      </c>
+      <c r="U42">
+        <v>8844</v>
+      </c>
+      <c r="V42">
+        <v>1161</v>
+      </c>
+      <c r="W42">
+        <v>-112</v>
+      </c>
+      <c r="X42">
+        <v>-2502</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>4994</v>
+      </c>
+      <c r="AA42">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>625</v>
+      </c>
+      <c r="D43">
+        <v>3646</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>3646</v>
+      </c>
+      <c r="G43">
+        <v>123021</v>
+      </c>
+      <c r="H43">
+        <v>266444</v>
+      </c>
+      <c r="I43">
+        <v>162496</v>
+      </c>
+      <c r="J43">
+        <v>17215</v>
+      </c>
+      <c r="K43">
+        <v>22971</v>
+      </c>
+      <c r="L43">
+        <v>-1861</v>
+      </c>
+      <c r="M43">
+        <v>-404</v>
+      </c>
+      <c r="N43">
+        <v>207491</v>
+      </c>
+      <c r="O43">
+        <v>232304</v>
+      </c>
+      <c r="P43">
+        <v>40186</v>
+      </c>
+      <c r="Q43">
+        <v>383</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>48400</v>
+      </c>
+      <c r="T43">
+        <v>34140</v>
+      </c>
+      <c r="U43">
+        <v>8814</v>
+      </c>
+      <c r="V43">
+        <v>426</v>
+      </c>
+      <c r="W43">
+        <v>-112</v>
+      </c>
+      <c r="X43">
+        <v>16430</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-6396</v>
+      </c>
+      <c r="AA43">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>735</v>
+      </c>
+      <c r="D44">
+        <v>3850</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>3850</v>
+      </c>
+      <c r="G44">
+        <v>156124</v>
+      </c>
+      <c r="H44">
+        <v>304706</v>
+      </c>
+      <c r="I44">
+        <v>197953</v>
+      </c>
+      <c r="J44">
+        <v>17004</v>
+      </c>
+      <c r="K44">
+        <v>27610</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>244916</v>
+      </c>
+      <c r="O44">
+        <v>269983</v>
+      </c>
+      <c r="P44">
+        <v>44614</v>
+      </c>
+      <c r="Q44">
+        <v>1502</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>48900</v>
+      </c>
+      <c r="T44">
+        <v>34723</v>
+      </c>
+      <c r="U44">
+        <v>10609</v>
+      </c>
+      <c r="V44">
+        <v>571</v>
+      </c>
+      <c r="W44">
+        <v>-162</v>
+      </c>
+      <c r="X44">
+        <v>36470</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-2634</v>
+      </c>
+      <c r="AA44">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>651</v>
+      </c>
+      <c r="D45">
+        <v>3716</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3716</v>
+      </c>
+      <c r="G45">
+        <v>162969</v>
+      </c>
+      <c r="H45">
+        <v>322187</v>
+      </c>
+      <c r="I45">
+        <v>210890</v>
+      </c>
+      <c r="J45">
+        <v>19399</v>
+      </c>
+      <c r="K45">
+        <v>32004</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>261065</v>
+      </c>
+      <c r="O45">
+        <v>287658</v>
+      </c>
+      <c r="P45">
+        <v>51403</v>
+      </c>
+      <c r="Q45">
+        <v>1131</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>49600</v>
+      </c>
+      <c r="T45">
+        <v>34529</v>
+      </c>
+      <c r="U45">
+        <v>11333</v>
+      </c>
+      <c r="V45">
+        <v>-1680</v>
+      </c>
+      <c r="W45">
+        <v>-161</v>
+      </c>
+      <c r="X45">
+        <v>20225</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-2762</v>
+      </c>
+      <c r="AA45">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>505</v>
+      </c>
+      <c r="D46">
+        <v>3517</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3517</v>
+      </c>
+      <c r="G46">
+        <v>164019</v>
+      </c>
+      <c r="H46">
+        <v>325266</v>
+      </c>
+      <c r="I46">
+        <v>219094</v>
+      </c>
+      <c r="J46">
+        <v>19933</v>
+      </c>
+      <c r="K46">
+        <v>28557</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>264894</v>
+      </c>
+      <c r="O46">
+        <v>291065</v>
+      </c>
+      <c r="P46">
+        <v>48490</v>
+      </c>
+      <c r="Q46">
+        <v>-2516</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>48700</v>
+      </c>
+      <c r="T46">
+        <v>34201</v>
+      </c>
+      <c r="U46">
+        <v>8685</v>
+      </c>
+      <c r="V46">
+        <v>2894</v>
+      </c>
+      <c r="W46">
+        <v>-158</v>
+      </c>
+      <c r="X46">
+        <v>5640</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>9928</v>
+      </c>
+      <c r="AA46">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>619</v>
+      </c>
+      <c r="D47">
+        <v>3641</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>3641</v>
+      </c>
+      <c r="G47">
+        <v>133069</v>
+      </c>
+      <c r="H47">
+        <v>300169</v>
+      </c>
+      <c r="I47">
+        <v>192462</v>
+      </c>
+      <c r="J47">
+        <v>20336</v>
+      </c>
+      <c r="K47">
+        <v>30010</v>
+      </c>
+      <c r="L47">
+        <v>-126</v>
+      </c>
+      <c r="M47">
+        <v>-773</v>
+      </c>
+      <c r="N47">
+        <v>239772</v>
+      </c>
+      <c r="O47">
+        <v>265340</v>
+      </c>
+      <c r="P47">
+        <v>50346</v>
+      </c>
+      <c r="Q47">
+        <v>158</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>47800</v>
+      </c>
+      <c r="T47">
+        <v>34829</v>
+      </c>
+      <c r="U47">
+        <v>9770</v>
+      </c>
+      <c r="V47">
+        <v>114</v>
+      </c>
+      <c r="W47">
+        <v>-158</v>
+      </c>
+      <c r="X47">
+        <v>-24352</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-3605</v>
+      </c>
+      <c r="AA47">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>466</v>
+      </c>
+      <c r="D48">
+        <v>3636</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>3636</v>
+      </c>
+      <c r="G48">
+        <v>156155</v>
+      </c>
+      <c r="H48">
+        <v>330283</v>
+      </c>
+      <c r="I48">
+        <v>221144</v>
+      </c>
+      <c r="J48">
+        <v>19536</v>
+      </c>
+      <c r="K48">
+        <v>31747</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>269672</v>
+      </c>
+      <c r="O48">
+        <v>294898</v>
+      </c>
+      <c r="P48">
+        <v>51283</v>
+      </c>
+      <c r="Q48">
+        <v>189</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>48200</v>
+      </c>
+      <c r="T48">
+        <v>35385</v>
+      </c>
+      <c r="U48">
+        <v>13065</v>
+      </c>
+      <c r="V48">
+        <v>260</v>
+      </c>
+      <c r="W48">
+        <v>-156</v>
+      </c>
+      <c r="X48">
+        <v>30133</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-10748</v>
+      </c>
+      <c r="AA48">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>725</v>
+      </c>
+      <c r="D49">
+        <v>3680</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>3680</v>
+      </c>
+      <c r="G49">
+        <v>153891</v>
+      </c>
+      <c r="H49">
+        <v>339944</v>
+      </c>
+      <c r="I49">
+        <v>222949</v>
+      </c>
+      <c r="J49">
+        <v>19516</v>
+      </c>
+      <c r="K49">
+        <v>35287</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>276663</v>
+      </c>
+      <c r="O49">
+        <v>302805</v>
+      </c>
+      <c r="P49">
+        <v>54803</v>
+      </c>
+      <c r="Q49">
+        <v>469</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>48700</v>
+      </c>
+      <c r="T49">
+        <v>37139</v>
+      </c>
+      <c r="U49">
+        <v>10744</v>
+      </c>
+      <c r="V49">
+        <v>899</v>
+      </c>
+      <c r="W49">
+        <v>-160</v>
+      </c>
+      <c r="X49">
+        <v>4125</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-10059</v>
+      </c>
+      <c r="AA49">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>635</v>
+      </c>
+      <c r="D50">
+        <v>3678</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>3678</v>
+      </c>
+      <c r="G50">
+        <v>166272</v>
+      </c>
+      <c r="H50">
+        <v>358990</v>
+      </c>
+      <c r="I50">
+        <v>246095</v>
+      </c>
+      <c r="J50">
+        <v>18530</v>
+      </c>
+      <c r="K50">
+        <v>25240</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>296979</v>
+      </c>
+      <c r="O50">
+        <v>321548</v>
+      </c>
+      <c r="P50">
+        <v>43770</v>
+      </c>
+      <c r="Q50">
+        <v>-264</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>49500</v>
+      </c>
+      <c r="T50">
+        <v>37442</v>
+      </c>
+      <c r="U50">
+        <v>11320</v>
+      </c>
+      <c r="V50">
+        <v>356</v>
+      </c>
+      <c r="W50">
+        <v>-167</v>
+      </c>
+      <c r="X50">
+        <v>18382</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>493</v>
+      </c>
+      <c r="AA50">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-253</v>
+      </c>
+      <c r="D51">
+        <v>3653</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>3653</v>
+      </c>
+      <c r="G51">
+        <v>163316</v>
+      </c>
+      <c r="H51">
+        <v>355942</v>
+      </c>
+      <c r="I51">
+        <v>239672</v>
+      </c>
+      <c r="J51">
+        <v>19854</v>
+      </c>
+      <c r="K51">
+        <v>31017</v>
+      </c>
+      <c r="L51">
+        <v>-837</v>
+      </c>
+      <c r="M51">
+        <v>-43</v>
+      </c>
+      <c r="N51">
+        <v>290688</v>
+      </c>
+      <c r="O51">
+        <v>319268</v>
+      </c>
+      <c r="P51">
+        <v>50871</v>
+      </c>
+      <c r="Q51">
+        <v>-287</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>49700</v>
+      </c>
+      <c r="T51">
+        <v>36674</v>
+      </c>
+      <c r="U51">
+        <v>11444</v>
+      </c>
+      <c r="V51">
+        <v>-2744</v>
+      </c>
+      <c r="W51">
+        <v>-166</v>
+      </c>
+      <c r="X51">
+        <v>-4755</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-1107</v>
+      </c>
+      <c r="AA51">
+        <v>-253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>843</v>
+      </c>
+      <c r="D52">
+        <v>4044</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>4044</v>
+      </c>
+      <c r="G52">
+        <v>168023</v>
+      </c>
+      <c r="H52">
+        <v>360505</v>
+      </c>
+      <c r="I52">
+        <v>244882</v>
+      </c>
+      <c r="J52">
+        <v>18481</v>
+      </c>
+      <c r="K52">
+        <v>35054</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>299600</v>
+      </c>
+      <c r="O52">
+        <v>323574</v>
+      </c>
+      <c r="P52">
+        <v>53535</v>
+      </c>
+      <c r="Q52">
+        <v>2500</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>49800</v>
+      </c>
+      <c r="T52">
+        <v>36931</v>
+      </c>
+      <c r="U52">
+        <v>16918</v>
+      </c>
+      <c r="V52">
+        <v>1785</v>
+      </c>
+      <c r="W52">
+        <v>-189</v>
+      </c>
+      <c r="X52">
+        <v>8686</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-3804</v>
+      </c>
+      <c r="AA52">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>975</v>
+      </c>
+      <c r="D53">
+        <v>3781</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>3781</v>
+      </c>
+      <c r="G53">
+        <v>186542</v>
+      </c>
+      <c r="H53">
+        <v>371952</v>
+      </c>
+      <c r="I53">
+        <v>255560</v>
+      </c>
+      <c r="J53">
+        <v>18889</v>
+      </c>
+      <c r="K53">
+        <v>33932</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>309597</v>
+      </c>
+      <c r="O53">
+        <v>333969</v>
+      </c>
+      <c r="P53">
+        <v>52821</v>
+      </c>
+      <c r="Q53">
+        <v>364</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>50800</v>
+      </c>
+      <c r="T53">
+        <v>37983</v>
+      </c>
+      <c r="U53">
+        <v>16495</v>
+      </c>
+      <c r="V53">
+        <v>904</v>
+      </c>
+      <c r="W53">
+        <v>-188</v>
+      </c>
+      <c r="X53">
+        <v>7313</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>8395</v>
+      </c>
+      <c r="AA53">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>539</v>
+      </c>
+      <c r="D54">
+        <v>3605</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>3605</v>
+      </c>
+      <c r="G54">
+        <v>178396</v>
+      </c>
+      <c r="H54">
+        <v>374516</v>
+      </c>
+      <c r="I54">
+        <v>261129</v>
+      </c>
+      <c r="J54">
+        <v>19864</v>
+      </c>
+      <c r="K54">
+        <v>26114</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>311269</v>
+      </c>
+      <c r="O54">
+        <v>336006</v>
+      </c>
+      <c r="P54">
+        <v>45978</v>
+      </c>
+      <c r="Q54">
+        <v>-844</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>51100</v>
+      </c>
+      <c r="T54">
+        <v>38510</v>
+      </c>
+      <c r="U54">
+        <v>15621</v>
+      </c>
+      <c r="V54">
+        <v>-587</v>
+      </c>
+      <c r="W54">
+        <v>-201</v>
+      </c>
+      <c r="X54">
+        <v>4377</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>6225</v>
+      </c>
+      <c r="AA54">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>674</v>
+      </c>
+      <c r="D55">
+        <v>3665</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>3665</v>
+      </c>
+      <c r="G55">
+        <v>175530</v>
+      </c>
+      <c r="H55">
+        <v>368241</v>
+      </c>
+      <c r="I55">
+        <v>252227</v>
+      </c>
+      <c r="J55">
+        <v>20616</v>
+      </c>
+      <c r="K55">
+        <v>32554</v>
+      </c>
+      <c r="L55">
+        <v>-69</v>
+      </c>
+      <c r="M55">
+        <v>-704</v>
+      </c>
+      <c r="N55">
+        <v>303524</v>
+      </c>
+      <c r="O55">
+        <v>329272</v>
+      </c>
+      <c r="P55">
+        <v>53170</v>
+      </c>
+      <c r="Q55">
+        <v>-368</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>51400</v>
+      </c>
+      <c r="T55">
+        <v>38969</v>
+      </c>
+      <c r="U55">
+        <v>18315</v>
+      </c>
+      <c r="V55">
+        <v>-1055</v>
+      </c>
+      <c r="W55">
+        <v>-186</v>
+      </c>
+      <c r="X55">
+        <v>-6717</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-8681</v>
+      </c>
+      <c r="AA55">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>577</v>
+      </c>
+      <c r="D56">
+        <v>3757</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>3757</v>
+      </c>
+      <c r="G56">
+        <v>196744</v>
+      </c>
+      <c r="H56">
+        <v>400740</v>
+      </c>
+      <c r="I56">
+        <v>282439</v>
+      </c>
+      <c r="J56">
+        <v>18227</v>
+      </c>
+      <c r="K56">
+        <v>33953</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>336359</v>
+      </c>
+      <c r="O56">
+        <v>361266</v>
+      </c>
+      <c r="P56">
+        <v>54280</v>
+      </c>
+      <c r="Q56">
+        <v>81</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>51100</v>
+      </c>
+      <c r="T56">
+        <v>39474</v>
+      </c>
+      <c r="U56">
+        <v>21235</v>
+      </c>
+      <c r="V56">
+        <v>3440</v>
+      </c>
+      <c r="W56">
+        <v>-220</v>
+      </c>
+      <c r="X56">
+        <v>30352</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-2585</v>
+      </c>
+      <c r="AA56">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1083</v>
+      </c>
+      <c r="D57">
+        <v>4630</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>4630</v>
+      </c>
+      <c r="G57">
+        <v>174228</v>
+      </c>
+      <c r="H57">
+        <v>386296</v>
+      </c>
+      <c r="I57">
+        <v>264896</v>
+      </c>
+      <c r="J57">
+        <v>20133</v>
+      </c>
+      <c r="K57">
+        <v>37185</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>319621</v>
+      </c>
+      <c r="O57">
+        <v>346698</v>
+      </c>
+      <c r="P57">
+        <v>58768</v>
+      </c>
+      <c r="Q57">
+        <v>237</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>50900</v>
+      </c>
+      <c r="T57">
+        <v>39598</v>
+      </c>
+      <c r="U57">
+        <v>23785</v>
+      </c>
+      <c r="V57">
+        <v>913</v>
+      </c>
+      <c r="W57">
+        <v>-209</v>
+      </c>
+      <c r="X57">
+        <v>-16224</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-992</v>
+      </c>
+      <c r="AA57">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>233</v>
+      </c>
+      <c r="D58">
+        <v>3688</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>3688</v>
+      </c>
+      <c r="G58">
+        <v>170475</v>
+      </c>
+      <c r="H58">
+        <v>385303</v>
+      </c>
+      <c r="I58">
+        <v>265869</v>
+      </c>
+      <c r="J58">
+        <v>20264</v>
+      </c>
+      <c r="K58">
+        <v>40656</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>321749</v>
+      </c>
+      <c r="O58">
+        <v>346600</v>
+      </c>
+      <c r="P58">
+        <v>60920</v>
+      </c>
+      <c r="Q58">
+        <v>560</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>50300</v>
+      </c>
+      <c r="T58">
+        <v>38703</v>
+      </c>
+      <c r="U58">
+        <v>27272</v>
+      </c>
+      <c r="V58">
+        <v>1186</v>
+      </c>
+      <c r="W58">
+        <v>-218</v>
+      </c>
+      <c r="X58">
+        <v>418</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>6922</v>
+      </c>
+      <c r="AA58">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>779</v>
+      </c>
+      <c r="D59">
+        <v>3790</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>3790</v>
+      </c>
+      <c r="G59">
+        <v>169900</v>
+      </c>
+      <c r="H59">
+        <v>399088</v>
+      </c>
+      <c r="I59">
+        <v>281259</v>
+      </c>
+      <c r="J59">
+        <v>20401</v>
+      </c>
+      <c r="K59">
+        <v>38054</v>
+      </c>
+      <c r="L59">
+        <v>-3550</v>
+      </c>
+      <c r="M59">
+        <v>-2005</v>
+      </c>
+      <c r="N59">
+        <v>332802</v>
+      </c>
+      <c r="O59">
+        <v>360208</v>
+      </c>
+      <c r="P59">
+        <v>58455</v>
+      </c>
+      <c r="Q59">
+        <v>197</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>50500</v>
+      </c>
+      <c r="T59">
+        <v>38880</v>
+      </c>
+      <c r="U59">
+        <v>35435</v>
+      </c>
+      <c r="V59">
+        <v>-71</v>
+      </c>
+      <c r="W59">
+        <v>-205</v>
+      </c>
+      <c r="X59">
+        <v>10236</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-6905</v>
+      </c>
+      <c r="AA59">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>853</v>
+      </c>
+      <c r="D60">
+        <v>3892</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>3892</v>
+      </c>
+      <c r="G60">
+        <v>167801</v>
+      </c>
+      <c r="H60">
+        <v>395254</v>
+      </c>
+      <c r="I60">
+        <v>284430</v>
+      </c>
+      <c r="J60">
+        <v>19375</v>
+      </c>
+      <c r="K60">
+        <v>38110</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>331245</v>
+      </c>
+      <c r="O60">
+        <v>355830</v>
+      </c>
+      <c r="P60">
+        <v>58485</v>
+      </c>
+      <c r="Q60">
+        <v>1186</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>39424</v>
+      </c>
+      <c r="U60">
+        <v>32283</v>
+      </c>
+      <c r="V60">
+        <v>2705</v>
+      </c>
+      <c r="W60">
+        <v>-214</v>
+      </c>
+      <c r="X60">
+        <v>6593</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>2506</v>
+      </c>
+      <c r="AA60">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>833</v>
+      </c>
+      <c r="D61">
+        <v>3789</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>3789</v>
+      </c>
+      <c r="G61">
+        <v>151510</v>
+      </c>
+      <c r="H61">
+        <v>377371</v>
+      </c>
+      <c r="I61">
+        <v>266768</v>
+      </c>
+      <c r="J61">
+        <v>17430</v>
+      </c>
+      <c r="K61">
+        <v>36582</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>315279</v>
+      </c>
+      <c r="O61">
+        <v>338172</v>
+      </c>
+      <c r="P61">
+        <v>58012</v>
+      </c>
+      <c r="Q61">
+        <v>-119</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>51300</v>
+      </c>
+      <c r="T61">
+        <v>39199</v>
+      </c>
+      <c r="U61">
+        <v>37135</v>
+      </c>
+      <c r="V61">
+        <v>1351</v>
+      </c>
+      <c r="W61">
+        <v>-204</v>
+      </c>
+      <c r="X61">
+        <v>-19344</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1511</v>
+      </c>
+      <c r="AA61">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>693</v>
+      </c>
+      <c r="D62">
+        <v>3563</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>3563</v>
+      </c>
+      <c r="G62">
+        <v>174950</v>
+      </c>
+      <c r="H62">
+        <v>393780</v>
+      </c>
+      <c r="I62">
+        <v>279610</v>
+      </c>
+      <c r="J62">
+        <v>21547</v>
+      </c>
+      <c r="K62">
+        <v>41744</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>328143</v>
+      </c>
+      <c r="O62">
+        <v>354805</v>
+      </c>
+      <c r="P62">
+        <v>63291</v>
+      </c>
+      <c r="Q62">
+        <v>-1697</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>51200</v>
+      </c>
+      <c r="T62">
+        <v>38975</v>
+      </c>
+      <c r="U62">
+        <v>30910</v>
+      </c>
+      <c r="V62">
+        <v>142</v>
+      </c>
+      <c r="W62">
+        <v>-242</v>
+      </c>
+      <c r="X62">
+        <v>17700</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>4956</v>
+      </c>
+      <c r="AA62">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>817</v>
+      </c>
+      <c r="D63">
+        <v>3720</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3720</v>
+      </c>
+      <c r="G63">
+        <v>155846</v>
+      </c>
+      <c r="H63">
+        <v>372870</v>
+      </c>
+      <c r="I63">
+        <v>257342</v>
+      </c>
+      <c r="J63">
+        <v>21686</v>
+      </c>
+      <c r="K63">
+        <v>43354</v>
+      </c>
+      <c r="L63">
+        <v>-199</v>
+      </c>
+      <c r="M63">
+        <v>-1200</v>
+      </c>
+      <c r="N63">
+        <v>306708</v>
+      </c>
+      <c r="O63">
+        <v>333585</v>
+      </c>
+      <c r="P63">
+        <v>65040</v>
+      </c>
+      <c r="Q63">
+        <v>-2609</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>52100</v>
+      </c>
+      <c r="T63">
+        <v>39285</v>
+      </c>
+      <c r="U63">
+        <v>30832</v>
+      </c>
+      <c r="V63">
+        <v>1794</v>
+      </c>
+      <c r="W63">
+        <v>-199</v>
+      </c>
+      <c r="X63">
+        <v>-24487</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>2889</v>
+      </c>
+      <c r="AA63">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>873</v>
+      </c>
+      <c r="D64">
+        <v>3785</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>3785</v>
+      </c>
+      <c r="G64">
+        <v>148109</v>
+      </c>
+      <c r="H64">
+        <v>372351</v>
+      </c>
+      <c r="I64">
+        <v>259678</v>
+      </c>
+      <c r="J64">
+        <v>22573</v>
+      </c>
+      <c r="K64">
+        <v>36654</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>303531</v>
+      </c>
+      <c r="O64">
+        <v>333054</v>
+      </c>
+      <c r="P64">
+        <v>60227</v>
+      </c>
+      <c r="Q64">
+        <v>1881</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>52200</v>
+      </c>
+      <c r="T64">
+        <v>39297</v>
+      </c>
+      <c r="U64">
+        <v>33869</v>
+      </c>
+      <c r="V64">
+        <v>-332</v>
+      </c>
+      <c r="W64">
+        <v>-232</v>
+      </c>
+      <c r="X64">
+        <v>-3219</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1897</v>
+      </c>
+      <c r="AA64">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>987</v>
+      </c>
+      <c r="D65">
+        <v>3960</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>3960</v>
+      </c>
+      <c r="G65">
+        <v>144318</v>
+      </c>
+      <c r="H65">
+        <v>374114</v>
+      </c>
+      <c r="I65">
+        <v>261378</v>
+      </c>
+      <c r="J65">
+        <v>24374</v>
+      </c>
+      <c r="K65">
+        <v>34492</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>302765</v>
+      </c>
+      <c r="O65">
+        <v>333741</v>
+      </c>
+      <c r="P65">
+        <v>58866</v>
+      </c>
+      <c r="Q65">
+        <v>-852</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>52300</v>
+      </c>
+      <c r="T65">
+        <v>40373</v>
+      </c>
+      <c r="U65">
+        <v>39808</v>
+      </c>
+      <c r="V65">
+        <v>95</v>
+      </c>
+      <c r="W65">
+        <v>-219</v>
+      </c>
+      <c r="X65">
+        <v>3528</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-3327</v>
+      </c>
+      <c r="AA65">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>870</v>
+      </c>
+      <c r="D66">
+        <v>3783</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>3783</v>
+      </c>
+      <c r="G66">
+        <v>113828</v>
+      </c>
+      <c r="H66">
+        <v>333469</v>
+      </c>
+      <c r="I66">
+        <v>221490</v>
+      </c>
+      <c r="J66">
+        <v>24463</v>
+      </c>
+      <c r="K66">
+        <v>36131</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>264355</v>
+      </c>
+      <c r="O66">
+        <v>293889</v>
+      </c>
+      <c r="P66">
+        <v>60594</v>
+      </c>
+      <c r="Q66">
+        <v>-135</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>52000</v>
+      </c>
+      <c r="T66">
+        <v>39580</v>
+      </c>
+      <c r="U66">
+        <v>30623</v>
+      </c>
+      <c r="V66">
+        <v>4689</v>
+      </c>
+      <c r="W66">
+        <v>-250</v>
+      </c>
+      <c r="X66">
+        <v>-34872</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>355</v>
+      </c>
+      <c r="AA66">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>922</v>
+      </c>
+      <c r="D67">
+        <v>3848</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>3848</v>
+      </c>
+      <c r="G67">
+        <v>119168</v>
+      </c>
+      <c r="H67">
+        <v>337536</v>
+      </c>
+      <c r="I67">
+        <v>221291</v>
+      </c>
+      <c r="J67">
+        <v>26346</v>
+      </c>
+      <c r="K67">
+        <v>38424</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-296</v>
+      </c>
+      <c r="N67">
+        <v>265972</v>
+      </c>
+      <c r="O67">
+        <v>297705</v>
+      </c>
+      <c r="P67">
+        <v>64770</v>
+      </c>
+      <c r="Q67">
+        <v>67</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>52600</v>
+      </c>
+      <c r="T67">
+        <v>39831</v>
+      </c>
+      <c r="U67">
+        <v>31142</v>
+      </c>
+      <c r="V67">
+        <v>-1224</v>
+      </c>
+      <c r="W67">
+        <v>-243</v>
+      </c>
+      <c r="X67">
+        <v>4032</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-128</v>
+      </c>
+      <c r="AA67">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>975</v>
+      </c>
+      <c r="D68">
+        <v>3963</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>3963</v>
+      </c>
+      <c r="G68">
+        <v>134320</v>
+      </c>
+      <c r="H68">
+        <v>354815</v>
+      </c>
+      <c r="I68">
+        <v>235677</v>
+      </c>
+      <c r="J68">
+        <v>27449</v>
+      </c>
+      <c r="K68">
+        <v>38732</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>281282</v>
+      </c>
+      <c r="O68">
+        <v>314317</v>
+      </c>
+      <c r="P68">
+        <v>66431</v>
+      </c>
+      <c r="Q68">
+        <v>-385</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>52800</v>
+      </c>
+      <c r="T68">
+        <v>40498</v>
+      </c>
+      <c r="U68">
+        <v>32165</v>
+      </c>
+      <c r="V68">
+        <v>-612</v>
+      </c>
+      <c r="W68">
+        <v>-248</v>
+      </c>
+      <c r="X68">
+        <v>11041</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-633</v>
+      </c>
+      <c r="AA68">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1018</v>
+      </c>
+      <c r="D69">
+        <v>4022</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>4022</v>
+      </c>
+      <c r="G69">
+        <v>135390</v>
+      </c>
+      <c r="H69">
+        <v>354397</v>
+      </c>
+      <c r="I69">
+        <v>230996</v>
+      </c>
+      <c r="J69">
+        <v>28158</v>
+      </c>
+      <c r="K69">
+        <v>40566</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>278725</v>
+      </c>
+      <c r="O69">
+        <v>313293</v>
+      </c>
+      <c r="P69">
+        <v>68974</v>
+      </c>
+      <c r="Q69">
+        <v>1579</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>52900</v>
+      </c>
+      <c r="T69">
+        <v>41104</v>
+      </c>
+      <c r="U69">
+        <v>33440</v>
+      </c>
+      <c r="V69">
+        <v>5212</v>
+      </c>
+      <c r="W69">
+        <v>-288</v>
+      </c>
+      <c r="X69">
+        <v>-3844</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-968</v>
+      </c>
+      <c r="AA69">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1175</v>
+      </c>
+      <c r="D70">
+        <v>3734</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>3734</v>
+      </c>
+      <c r="G70">
+        <v>150999</v>
+      </c>
+      <c r="H70">
+        <v>371758</v>
+      </c>
+      <c r="I70">
+        <v>244322</v>
+      </c>
+      <c r="J70">
+        <v>31007</v>
+      </c>
+      <c r="K70">
+        <v>41998</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>293753</v>
+      </c>
+      <c r="O70">
+        <v>330012</v>
+      </c>
+      <c r="P70">
+        <v>73005</v>
+      </c>
+      <c r="Q70">
+        <v>-2332</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>52500</v>
+      </c>
+      <c r="T70">
+        <v>41746</v>
+      </c>
+      <c r="U70">
+        <v>33517</v>
+      </c>
+      <c r="V70">
+        <v>1291</v>
+      </c>
+      <c r="W70">
+        <v>-297</v>
+      </c>
+      <c r="X70">
+        <v>15549</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-787</v>
+      </c>
+      <c r="AA70">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1171</v>
+      </c>
+      <c r="D71">
+        <v>4183</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>4183</v>
+      </c>
+      <c r="G71">
+        <v>154979</v>
+      </c>
+      <c r="H71">
+        <v>373597</v>
+      </c>
+      <c r="I71">
+        <v>241844</v>
+      </c>
+      <c r="J71">
+        <v>27239</v>
+      </c>
+      <c r="K71">
+        <v>48076</v>
+      </c>
+      <c r="L71">
+        <v>-12</v>
+      </c>
+      <c r="M71">
+        <v>-2924</v>
+      </c>
+      <c r="N71">
+        <v>298895</v>
+      </c>
+      <c r="O71">
+        <v>331473</v>
+      </c>
+      <c r="P71">
+        <v>77565</v>
+      </c>
+      <c r="Q71">
+        <v>-1261</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>52100</v>
+      </c>
+      <c r="T71">
+        <v>42124</v>
+      </c>
+      <c r="U71">
+        <v>33420</v>
+      </c>
+      <c r="V71">
+        <v>-852</v>
+      </c>
+      <c r="W71">
+        <v>-282</v>
+      </c>
+      <c r="X71">
+        <v>971</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-2433</v>
+      </c>
+      <c r="AA71">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>1103</v>
+      </c>
+      <c r="D72">
+        <v>4141</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>4141</v>
+      </c>
+      <c r="G72">
+        <v>136696</v>
+      </c>
+      <c r="H72">
+        <v>352928</v>
+      </c>
+      <c r="I72">
+        <v>230560</v>
+      </c>
+      <c r="J72">
+        <v>29863</v>
+      </c>
+      <c r="K72">
+        <v>37392</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>275948</v>
+      </c>
+      <c r="O72">
+        <v>311182</v>
+      </c>
+      <c r="P72">
+        <v>68705</v>
+      </c>
+      <c r="Q72">
+        <v>1148</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>52000</v>
+      </c>
+      <c r="T72">
+        <v>41746</v>
+      </c>
+      <c r="U72">
+        <v>31855</v>
+      </c>
+      <c r="V72">
+        <v>2420</v>
+      </c>
+      <c r="W72">
+        <v>-293</v>
+      </c>
+      <c r="X72">
+        <v>-17806</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-2499</v>
+      </c>
+      <c r="AA72">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1111</v>
+      </c>
+      <c r="D73">
+        <v>4072</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>4072</v>
+      </c>
+      <c r="G73">
+        <v>137252</v>
+      </c>
+      <c r="H73">
+        <v>349770</v>
+      </c>
+      <c r="I73">
+        <v>231590</v>
+      </c>
+      <c r="J73">
+        <v>30797</v>
+      </c>
+      <c r="K73">
+        <v>31762</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>270627</v>
+      </c>
+      <c r="O73">
+        <v>307909</v>
+      </c>
+      <c r="P73">
+        <v>62809</v>
+      </c>
+      <c r="Q73">
+        <v>-671</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>52000</v>
+      </c>
+      <c r="T73">
+        <v>41861</v>
+      </c>
+      <c r="U73">
+        <v>33769</v>
+      </c>
+      <c r="V73">
+        <v>1244</v>
+      </c>
+      <c r="W73">
+        <v>-319</v>
+      </c>
+      <c r="X73">
+        <v>-4721</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1362</v>
+      </c>
+      <c r="AA73">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>881</v>
+      </c>
+      <c r="D74">
+        <v>4007</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>4007</v>
+      </c>
+      <c r="G74">
+        <v>148238</v>
+      </c>
+      <c r="H74">
+        <v>362873</v>
+      </c>
+      <c r="I74">
+        <v>238778</v>
+      </c>
+      <c r="J74">
+        <v>29163</v>
+      </c>
+      <c r="K74">
+        <v>38281</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>287154</v>
+      </c>
+      <c r="O74">
+        <v>322005</v>
+      </c>
+      <c r="P74">
+        <v>70671</v>
+      </c>
+      <c r="Q74">
+        <v>1909</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>51300</v>
+      </c>
+      <c r="T74">
+        <v>40868</v>
+      </c>
+      <c r="U74">
+        <v>52659</v>
+      </c>
+      <c r="V74">
+        <v>3184</v>
+      </c>
+      <c r="W74">
+        <v>-327</v>
+      </c>
+      <c r="X74">
+        <v>13458</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-152</v>
+      </c>
+      <c r="AA74">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>946</v>
+      </c>
+      <c r="D75">
+        <v>3892</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>3892</v>
+      </c>
+      <c r="G75">
+        <v>135127</v>
+      </c>
+      <c r="H75">
+        <v>346132</v>
+      </c>
+      <c r="I75">
+        <v>222382</v>
+      </c>
+      <c r="J75">
+        <v>25074</v>
+      </c>
+      <c r="K75">
+        <v>36251</v>
+      </c>
+      <c r="L75">
+        <v>-2896</v>
+      </c>
+      <c r="M75">
+        <v>-1500</v>
+      </c>
+      <c r="N75">
+        <v>271748</v>
+      </c>
+      <c r="O75">
+        <v>304663</v>
+      </c>
+      <c r="P75">
+        <v>69427</v>
+      </c>
+      <c r="Q75">
+        <v>35</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>49800</v>
+      </c>
+      <c r="T75">
+        <v>41469</v>
+      </c>
+      <c r="U75">
+        <v>46138</v>
+      </c>
+      <c r="V75">
+        <v>-949</v>
+      </c>
+      <c r="W75">
+        <v>-306</v>
+      </c>
+      <c r="X75">
+        <v>-19837</v>
+      </c>
+      <c r="Y75">
+        <v>1371</v>
+      </c>
+      <c r="Z75">
+        <v>3848</v>
+      </c>
+      <c r="AA75">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1017</v>
+      </c>
+      <c r="D76">
+        <v>3932</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>3932</v>
+      </c>
+      <c r="G76">
+        <v>167311</v>
+      </c>
+      <c r="H76">
+        <v>381168</v>
+      </c>
+      <c r="I76">
+        <v>252877</v>
+      </c>
+      <c r="J76">
+        <v>26703</v>
+      </c>
+      <c r="K76">
+        <v>42219</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>305190</v>
+      </c>
+      <c r="O76">
+        <v>339333</v>
+      </c>
+      <c r="P76">
+        <v>73701</v>
+      </c>
+      <c r="Q76">
+        <v>-701</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>49100</v>
+      </c>
+      <c r="T76">
+        <v>41835</v>
+      </c>
+      <c r="U76">
+        <v>66757</v>
+      </c>
+      <c r="V76">
+        <v>-1565</v>
+      </c>
+      <c r="W76">
+        <v>-318</v>
+      </c>
+      <c r="X76">
+        <v>33082</v>
+      </c>
+      <c r="Y76">
+        <v>1211</v>
+      </c>
+      <c r="Z76">
+        <v>-3510</v>
+      </c>
+      <c r="AA76">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1038</v>
+      </c>
+      <c r="D77">
+        <v>3877</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>3877</v>
+      </c>
+      <c r="G77">
+        <v>155375</v>
+      </c>
+      <c r="H77">
+        <v>373168</v>
+      </c>
+      <c r="I77">
+        <v>249660</v>
+      </c>
+      <c r="J77">
+        <v>27872</v>
+      </c>
+      <c r="K77">
+        <v>36850</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>294758</v>
+      </c>
+      <c r="O77">
+        <v>331698</v>
+      </c>
+      <c r="P77">
+        <v>67030</v>
+      </c>
+      <c r="Q77">
+        <v>1400</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>48700</v>
+      </c>
+      <c r="T77">
+        <v>41470</v>
+      </c>
+      <c r="U77">
+        <v>50441</v>
+      </c>
+      <c r="V77">
+        <v>5081</v>
+      </c>
+      <c r="W77">
+        <v>-330</v>
+      </c>
+      <c r="X77">
+        <v>-9791</v>
+      </c>
+      <c r="Y77">
+        <v>1409</v>
+      </c>
+      <c r="Z77">
+        <v>-2569</v>
+      </c>
+      <c r="AA77">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1440</v>
+      </c>
+      <c r="D78">
+        <v>4786</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>4786</v>
+      </c>
+      <c r="G78">
+        <v>163994</v>
+      </c>
+      <c r="H78">
+        <v>381508</v>
+      </c>
+      <c r="I78">
+        <v>259466</v>
+      </c>
+      <c r="J78">
+        <v>27501</v>
+      </c>
+      <c r="K78">
+        <v>37909</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>305273</v>
+      </c>
+      <c r="O78">
+        <v>339780</v>
+      </c>
+      <c r="P78">
+        <v>67781</v>
+      </c>
+      <c r="Q78">
+        <v>-1725</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>48400</v>
+      </c>
+      <c r="T78">
+        <v>41728</v>
+      </c>
+      <c r="U78">
+        <v>35012</v>
+      </c>
+      <c r="V78">
+        <v>-2471</v>
+      </c>
+      <c r="W78">
+        <v>-335</v>
+      </c>
+      <c r="X78">
+        <v>6005</v>
+      </c>
+      <c r="Y78">
+        <v>1772</v>
+      </c>
+      <c r="Z78">
+        <v>732</v>
+      </c>
+      <c r="AA78">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>980</v>
+      </c>
+      <c r="D79">
+        <v>3939</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>3939</v>
+      </c>
+      <c r="G79">
+        <v>220769</v>
+      </c>
+      <c r="H79">
+        <v>468155</v>
+      </c>
+      <c r="I79">
+        <v>336717</v>
+      </c>
+      <c r="J79">
+        <v>25294</v>
+      </c>
+      <c r="K79">
+        <v>44555</v>
+      </c>
+      <c r="L79">
+        <v>-2838</v>
+      </c>
+      <c r="M79">
+        <v>-1750</v>
+      </c>
+      <c r="N79">
+        <v>391143</v>
+      </c>
+      <c r="O79">
+        <v>426776</v>
+      </c>
+      <c r="P79">
+        <v>73593</v>
+      </c>
+      <c r="Q79">
+        <v>2538</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>47900</v>
+      </c>
+      <c r="T79">
+        <v>41379</v>
+      </c>
+      <c r="U79">
+        <v>32454</v>
+      </c>
+      <c r="V79">
+        <v>-1685</v>
+      </c>
+      <c r="W79">
+        <v>-318</v>
+      </c>
+      <c r="X79">
+        <v>82880</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>-20732</v>
+      </c>
+      <c r="AA79">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>950</v>
+      </c>
+      <c r="D80">
+        <v>3867</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>3867</v>
+      </c>
+      <c r="G80">
+        <v>191608</v>
+      </c>
+      <c r="H80">
+        <v>442316</v>
+      </c>
+      <c r="I80">
+        <v>305470</v>
+      </c>
+      <c r="J80">
+        <v>25366</v>
+      </c>
+      <c r="K80">
+        <v>44064</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>361147</v>
+      </c>
+      <c r="O80">
+        <v>398350</v>
+      </c>
+      <c r="P80">
+        <v>73258</v>
+      </c>
+      <c r="Q80">
+        <v>-2819</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>48300</v>
+      </c>
+      <c r="T80">
+        <v>43966</v>
+      </c>
+      <c r="U80">
+        <v>41414</v>
+      </c>
+      <c r="V80">
+        <v>6810</v>
+      </c>
+      <c r="W80">
+        <v>-327</v>
+      </c>
+      <c r="X80">
+        <v>-29490</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-11875</v>
+      </c>
+      <c r="AA80">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>937</v>
+      </c>
+      <c r="D81">
+        <v>3838</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3838</v>
+      </c>
+      <c r="G81">
+        <v>177565</v>
+      </c>
+      <c r="H81">
+        <v>428398</v>
+      </c>
+      <c r="I81">
+        <v>296312</v>
+      </c>
+      <c r="J81">
+        <v>25321</v>
+      </c>
+      <c r="K81">
+        <v>43685</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>350092</v>
+      </c>
+      <c r="O81">
+        <v>383051</v>
+      </c>
+      <c r="P81">
+        <v>70226</v>
+      </c>
+      <c r="Q81">
+        <v>9</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>48600</v>
+      </c>
+      <c r="T81">
+        <v>45347</v>
+      </c>
+      <c r="U81">
+        <v>33751</v>
+      </c>
+      <c r="V81">
+        <v>778</v>
+      </c>
+      <c r="W81">
+        <v>-339</v>
+      </c>
+      <c r="X81">
+        <v>-15255</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-543</v>
+      </c>
+      <c r="AA81">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>750</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3828</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>3828</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>217213</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>469633</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>341545</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>21384</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>41195</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>396173</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>423513</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>69198</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>2424</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>48500</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>46120</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>37159</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-865</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-312</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>37373</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1422</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>1466</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>750</v>
       </c>
     </row>
